--- a/Excel Files/Top 250 User Rating Movies.xlsx
+++ b/Excel Files/Top 250 User Rating Movies.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\OneDrive\Documents\GitHub\Movie-Anaylsis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\OneDrive\Documents\GitHub\Movie-Anaylsis\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED2C201-9153-4F2C-8A1D-F7750E35564C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC88564-5DBD-4340-980E-6D7EF143C9EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15420" yWindow="780" windowWidth="14925" windowHeight="20745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Top 250 User Rating Movies" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="683">
   <si>
     <t>Movie Rank</t>
   </si>
@@ -64,9 +64,6 @@
     <t>The Godfather</t>
   </si>
   <si>
-    <t>Crime, Drama</t>
-  </si>
-  <si>
     <t>Francis Ford Coppola</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
     <t>PG-13</t>
   </si>
   <si>
-    <t>Action, Crime, Drama</t>
-  </si>
-  <si>
     <t>Christopher Nolan</t>
   </si>
   <si>
@@ -91,9 +85,6 @@
     <t>Schindler's List</t>
   </si>
   <si>
-    <t>Biography, Drama, History</t>
-  </si>
-  <si>
     <t>Steven Spielberg</t>
   </si>
   <si>
@@ -121,9 +112,6 @@
     <t>The Lord of the Rings: The Return of the King</t>
   </si>
   <si>
-    <t>Action, Adventure, Drama</t>
-  </si>
-  <si>
     <t>Peter Jackson</t>
   </si>
   <si>
@@ -142,9 +130,6 @@
     <t>Inception</t>
   </si>
   <si>
-    <t>Action, Adventure, Sci-Fi</t>
-  </si>
-  <si>
     <t>Leonardo DiCaprio, Joseph Gordon-Levitt, Elliot Page, Ken Watanabe</t>
   </si>
   <si>
@@ -166,9 +151,6 @@
     <t>Forrest Gump</t>
   </si>
   <si>
-    <t>Drama, Romance</t>
-  </si>
-  <si>
     <t>Robert Zemeckis</t>
   </si>
   <si>
@@ -178,9 +160,6 @@
     <t>The Good, the Bad and the Ugly</t>
   </si>
   <si>
-    <t>Adventure, Western</t>
-  </si>
-  <si>
     <t>Sergio Leone</t>
   </si>
   <si>
@@ -199,9 +178,6 @@
     <t>TV-MA</t>
   </si>
   <si>
-    <t>Crime, Drama, Mystery</t>
-  </si>
-  <si>
     <t>T.J. Gnanavel</t>
   </si>
   <si>
@@ -214,18 +190,12 @@
     <t>Interstellar</t>
   </si>
   <si>
-    <t>Adventure, Drama, Sci-Fi</t>
-  </si>
-  <si>
     <t>Matthew McConaughey, Anne Hathaway, Jessica Chastain, Mackenzie Foy</t>
   </si>
   <si>
     <t>Goodfellas</t>
   </si>
   <si>
-    <t>Biography, Crime, Drama</t>
-  </si>
-  <si>
     <t>Martin Scorsese</t>
   </si>
   <si>
@@ -235,9 +205,6 @@
     <t>The Matrix</t>
   </si>
   <si>
-    <t>Action, Sci-Fi</t>
-  </si>
-  <si>
     <t>Lana Wachowski</t>
   </si>
   <si>
@@ -259,9 +226,6 @@
     <t>PG</t>
   </si>
   <si>
-    <t>Action, Adventure, Fantasy</t>
-  </si>
-  <si>
     <t>Irvin Kershner</t>
   </si>
   <si>
@@ -271,9 +235,6 @@
     <t>The Green Mile</t>
   </si>
   <si>
-    <t>Crime, Drama, Fantasy</t>
-  </si>
-  <si>
     <t>Tom Hanks, Michael Clarke Duncan, David Morse, Bonnie Hunt</t>
   </si>
   <si>
@@ -295,9 +256,6 @@
     <t>The Silence of the Lambs</t>
   </si>
   <si>
-    <t>Crime, Drama, Thriller</t>
-  </si>
-  <si>
     <t>Jonathan Demme</t>
   </si>
   <si>
@@ -307,18 +265,12 @@
     <t>Saving Private Ryan</t>
   </si>
   <si>
-    <t>Drama, War</t>
-  </si>
-  <si>
     <t>Tom Hanks, Matt Damon, Tom Sizemore, Edward Burns</t>
   </si>
   <si>
     <t>Spirited Away</t>
   </si>
   <si>
-    <t>Animation, Adventure, Family</t>
-  </si>
-  <si>
     <t>Hayao Miyazaki</t>
   </si>
   <si>
@@ -346,9 +298,6 @@
     <t>Life Is Beautiful</t>
   </si>
   <si>
-    <t>Comedy, Drama, Romance</t>
-  </si>
-  <si>
     <t>Roberto Benigni</t>
   </si>
   <si>
@@ -361,9 +310,6 @@
     <t>Not Rated</t>
   </si>
   <si>
-    <t>Action, Drama</t>
-  </si>
-  <si>
     <t>Akira Kurosawa</t>
   </si>
   <si>
@@ -373,9 +319,6 @@
     <t>It's a Wonderful Life</t>
   </si>
   <si>
-    <t>Drama, Family, Fantasy</t>
-  </si>
-  <si>
     <t>Frank Capra</t>
   </si>
   <si>
@@ -385,9 +328,6 @@
     <t>Harakiri</t>
   </si>
   <si>
-    <t>Action, Drama, Mystery</t>
-  </si>
-  <si>
     <t>Masaki Kobayashi</t>
   </si>
   <si>
@@ -406,9 +346,6 @@
     <t>Parasite</t>
   </si>
   <si>
-    <t>Drama, Thriller</t>
-  </si>
-  <si>
     <t>Bong Joon Ho</t>
   </si>
   <si>
@@ -433,9 +370,6 @@
     <t>Whiplash</t>
   </si>
   <si>
-    <t>Drama, Music</t>
-  </si>
-  <si>
     <t>Damien Chazelle</t>
   </si>
   <si>
@@ -445,27 +379,18 @@
     <t>Back to the Future</t>
   </si>
   <si>
-    <t>Adventure, Comedy, Sci-Fi</t>
-  </si>
-  <si>
     <t>Michael J. Fox, Christopher Lloyd, Lea Thompson, Crispin Glover</t>
   </si>
   <si>
     <t>Alien</t>
   </si>
   <si>
-    <t>Horror, Sci-Fi</t>
-  </si>
-  <si>
     <t>Sigourney Weaver, Tom Skerritt, John Hurt, Veronica Cartwright</t>
   </si>
   <si>
     <t>The Prestige</t>
   </si>
   <si>
-    <t>Drama, Mystery, Sci-Fi</t>
-  </si>
-  <si>
     <t>Christian Bale, Hugh Jackman, Scarlett Johansson, Michael Caine</t>
   </si>
   <si>
@@ -475,9 +400,6 @@
     <t>G</t>
   </si>
   <si>
-    <t>Animation, Adventure, Drama</t>
-  </si>
-  <si>
     <t>Roger Allers</t>
   </si>
   <si>
@@ -496,9 +418,6 @@
     <t>Psycho</t>
   </si>
   <si>
-    <t>Horror, Mystery, Thriller</t>
-  </si>
-  <si>
     <t>Alfred Hitchcock</t>
   </si>
   <si>
@@ -508,9 +427,6 @@
     <t>The Pianist</t>
   </si>
   <si>
-    <t>Biography, Drama, Music</t>
-  </si>
-  <si>
     <t>Roman Polanski</t>
   </si>
   <si>
@@ -529,9 +445,6 @@
     <t>The Intouchables</t>
   </si>
   <si>
-    <t>Biography, Comedy, Drama</t>
-  </si>
-  <si>
     <t>Olivier Nakache</t>
   </si>
   <si>
@@ -541,9 +454,6 @@
     <t>Casablanca</t>
   </si>
   <si>
-    <t>Drama, Romance, War</t>
-  </si>
-  <si>
     <t>Michael Curtiz</t>
   </si>
   <si>
@@ -562,9 +472,6 @@
     <t>Grave of the Fireflies</t>
   </si>
   <si>
-    <t>Animation, Drama, War</t>
-  </si>
-  <si>
     <t>Isao Takahata</t>
   </si>
   <si>
@@ -574,9 +481,6 @@
     <t>Rear Window</t>
   </si>
   <si>
-    <t>Mystery, Thriller</t>
-  </si>
-  <si>
     <t>James Stewart, Grace Kelly, Wendell Corey, Thelma Ritter</t>
   </si>
   <si>
@@ -616,9 +520,6 @@
     <t>Spider-Man: Into the Spider-Verse</t>
   </si>
   <si>
-    <t>Animation, Action, Adventure</t>
-  </si>
-  <si>
     <t>Bob Persichetti</t>
   </si>
   <si>
@@ -652,36 +553,24 @@
     <t>Django Unchained</t>
   </si>
   <si>
-    <t>Drama, Western</t>
-  </si>
-  <si>
     <t>Jamie Foxx, Christoph Waltz, Leonardo DiCaprio, Kerry Washington</t>
   </si>
   <si>
     <t>Indiana Jones and the Raiders of the Lost Ark</t>
   </si>
   <si>
-    <t>Action, Adventure</t>
-  </si>
-  <si>
     <t>Harrison Ford, Karen Allen, Paul Freeman, John Rhys-Davies</t>
   </si>
   <si>
     <t>Apocalypse Now</t>
   </si>
   <si>
-    <t>Drama, Mystery, War</t>
-  </si>
-  <si>
     <t>Martin Sheen, Marlon Brando, Robert Duvall, Frederic Forrest</t>
   </si>
   <si>
     <t>The Shining</t>
   </si>
   <si>
-    <t>Drama, Horror</t>
-  </si>
-  <si>
     <t>Stanley Kubrick</t>
   </si>
   <si>
@@ -691,9 +580,6 @@
     <t>Come and See</t>
   </si>
   <si>
-    <t>Drama, Thriller, War</t>
-  </si>
-  <si>
     <t>Elem Klimov</t>
   </si>
   <si>
@@ -703,9 +589,6 @@
     <t>The Dark Knight Rises</t>
   </si>
   <si>
-    <t>Action, Drama, Thriller</t>
-  </si>
-  <si>
     <t>Christian Bale, Tom Hardy, Anne Hathaway, Gary Oldman</t>
   </si>
   <si>
@@ -724,9 +607,6 @@
     <t>Your Name.</t>
   </si>
   <si>
-    <t>Animation, Drama, Fantasy</t>
-  </si>
-  <si>
     <t>Makoto Shinkai</t>
   </si>
   <si>
@@ -754,9 +634,6 @@
     <t>Coco</t>
   </si>
   <si>
-    <t>Animation, Adventure, Comedy</t>
-  </si>
-  <si>
     <t>Lee Unkrich</t>
   </si>
   <si>
@@ -781,9 +658,6 @@
     <t>The Lives of Others</t>
   </si>
   <si>
-    <t>Drama, Mystery, Thriller</t>
-  </si>
-  <si>
     <t>Florian Henckel von Donnersmarck</t>
   </si>
   <si>
@@ -793,9 +667,6 @@
     <t>Dr. Strangelove or: How I Learned to Stop Worrying and Love the Bomb</t>
   </si>
   <si>
-    <t>Comedy, War</t>
-  </si>
-  <si>
     <t>Peter Sellers, George C. Scott, Sterling Hayden, Keenan Wynn</t>
   </si>
   <si>
@@ -805,9 +676,6 @@
     <t>Passed</t>
   </si>
   <si>
-    <t>Drama, Film-Noir</t>
-  </si>
-  <si>
     <t>Billy Wilder</t>
   </si>
   <si>
@@ -826,9 +694,6 @@
     <t>3 Idiots</t>
   </si>
   <si>
-    <t>Comedy, Drama</t>
-  </si>
-  <si>
     <t>Rajkumar Hirani</t>
   </si>
   <si>
@@ -850,9 +715,6 @@
     <t>The Great Dictator</t>
   </si>
   <si>
-    <t>Comedy, Drama, War</t>
-  </si>
-  <si>
     <t>Charles Chaplin, Paulette Goddard, Jack Oakie, Reginald Gardiner</t>
   </si>
   <si>
@@ -865,9 +727,6 @@
     <t>Guardians of the Galaxy Vol. 3</t>
   </si>
   <si>
-    <t>Action, Adventure, Comedy</t>
-  </si>
-  <si>
     <t>James Gunn</t>
   </si>
   <si>
@@ -904,9 +763,6 @@
     <t>Inglourious Basterds</t>
   </si>
   <si>
-    <t>Adventure, Drama, War</t>
-  </si>
-  <si>
     <t>Brad Pitt, Diane Kruger, Eli Roth, Mélanie Laurent</t>
   </si>
   <si>
@@ -946,9 +802,6 @@
     <t>Eternal Sunshine of the Spotless Mind</t>
   </si>
   <si>
-    <t>Drama, Romance, Sci-Fi</t>
-  </si>
-  <si>
     <t>Michel Gondry</t>
   </si>
   <si>
@@ -958,18 +811,12 @@
     <t>A Clockwork Orange</t>
   </si>
   <si>
-    <t>Crime, Sci-Fi</t>
-  </si>
-  <si>
     <t>Malcolm McDowell, Patrick Magee, Michael Bates, Warren Clarke</t>
   </si>
   <si>
     <t>2001: A Space Odyssey</t>
   </si>
   <si>
-    <t>Adventure, Sci-Fi</t>
-  </si>
-  <si>
     <t>Keir Dullea, Gary Lockwood, William Sylvester, Daniel Richter</t>
   </si>
   <si>
@@ -982,9 +829,6 @@
     <t>Reservoir Dogs</t>
   </si>
   <si>
-    <t>Crime, Thriller</t>
-  </si>
-  <si>
     <t>Harvey Keitel, Tim Roth, Michael Madsen, Chris Penn</t>
   </si>
   <si>
@@ -1024,9 +868,6 @@
     <t>Incendies</t>
   </si>
   <si>
-    <t>Drama, Mystery</t>
-  </si>
-  <si>
     <t>Denis Villeneuve</t>
   </si>
   <si>
@@ -1036,9 +877,6 @@
     <t>Singin' in the Rain</t>
   </si>
   <si>
-    <t>Comedy, Musical, Romance</t>
-  </si>
-  <si>
     <t>Stanley Donen</t>
   </si>
   <si>
@@ -1066,9 +904,6 @@
     <t>Amélie</t>
   </si>
   <si>
-    <t>Comedy, Romance</t>
-  </si>
-  <si>
     <t>Jean-Pierre Jeunet</t>
   </si>
   <si>
@@ -1078,18 +913,12 @@
     <t>Vertigo</t>
   </si>
   <si>
-    <t>Mystery, Romance, Thriller</t>
-  </si>
-  <si>
     <t>James Stewart, Kim Novak, Barbara Bel Geddes, Tom Helmore</t>
   </si>
   <si>
     <t>Lawrence of Arabia</t>
   </si>
   <si>
-    <t>Adventure, Biography, Drama</t>
-  </si>
-  <si>
     <t>David Lean</t>
   </si>
   <si>
@@ -1120,9 +949,6 @@
     <t>Metropolis</t>
   </si>
   <si>
-    <t>Drama, Sci-Fi</t>
-  </si>
-  <si>
     <t>Fritz Lang</t>
   </si>
   <si>
@@ -1132,18 +958,12 @@
     <t>North by Northwest</t>
   </si>
   <si>
-    <t>Action, Adventure, Mystery</t>
-  </si>
-  <si>
     <t>Cary Grant, Eva Marie Saint, James Mason, Jessie Royce Landis</t>
   </si>
   <si>
     <t>The Sting</t>
   </si>
   <si>
-    <t>Comedy, Crime, Drama</t>
-  </si>
-  <si>
     <t>George Roy Hill</t>
   </si>
   <si>
@@ -1162,9 +982,6 @@
     <t>M</t>
   </si>
   <si>
-    <t>Crime, Mystery, Thriller</t>
-  </si>
-  <si>
     <t>Peter Lorre, Ellen Widmann, Inge Landgut, Otto Wernicke</t>
   </si>
   <si>
@@ -1183,9 +1000,6 @@
     <t>Double Indemnity</t>
   </si>
   <si>
-    <t>Crime, Drama, Film-Noir</t>
-  </si>
-  <si>
     <t>Fred MacMurray, Barbara Stanwyck, Edward G. Robinson, Byron Barr</t>
   </si>
   <si>
@@ -1201,9 +1015,6 @@
     <t>Like Stars on Earth</t>
   </si>
   <si>
-    <t>Drama, Family</t>
-  </si>
-  <si>
     <t>Aamir Khan</t>
   </si>
   <si>
@@ -1222,9 +1033,6 @@
     <t>Dangal</t>
   </si>
   <si>
-    <t>Action, Biography, Drama</t>
-  </si>
-  <si>
     <t>Nitesh Tiwari</t>
   </si>
   <si>
@@ -1234,18 +1042,12 @@
     <t>The Kid</t>
   </si>
   <si>
-    <t>Comedy, Drama, Family</t>
-  </si>
-  <si>
     <t>Charles Chaplin, Edna Purviance, Jackie Coogan, Carl Miller</t>
   </si>
   <si>
     <t>John Wick: Chapter 4</t>
   </si>
   <si>
-    <t>Action, Crime, Thriller</t>
-  </si>
-  <si>
     <t>Chad Stahelski</t>
   </si>
   <si>
@@ -1264,18 +1066,12 @@
     <t>The Wolf of Wall Street</t>
   </si>
   <si>
-    <t>Biography, Comedy, Crime</t>
-  </si>
-  <si>
     <t>Leonardo DiCaprio, Jonah Hill, Margot Robbie, Matthew McConaughey</t>
   </si>
   <si>
     <t>1917</t>
   </si>
   <si>
-    <t>Action, Drama, War</t>
-  </si>
-  <si>
     <t>Dean-Charles Chapman, George MacKay, Daniel Mays, Colin Firth</t>
   </si>
   <si>
@@ -1318,9 +1114,6 @@
     <t>Snatch</t>
   </si>
   <si>
-    <t>Comedy, Crime</t>
-  </si>
-  <si>
     <t>Guy Ritchie</t>
   </si>
   <si>
@@ -1336,9 +1129,6 @@
     <t>A Beautiful Mind</t>
   </si>
   <si>
-    <t>Biography, Drama</t>
-  </si>
-  <si>
     <t>Ron Howard</t>
   </si>
   <si>
@@ -1354,9 +1144,6 @@
     <t>The Thing</t>
   </si>
   <si>
-    <t>Horror, Mystery, Sci-Fi</t>
-  </si>
-  <si>
     <t>John Carpenter</t>
   </si>
   <si>
@@ -1444,9 +1231,6 @@
     <t>Die Hard</t>
   </si>
   <si>
-    <t>Action, Thriller</t>
-  </si>
-  <si>
     <t>John McTiernan</t>
   </si>
   <si>
@@ -1456,9 +1240,6 @@
     <t>V for Vendetta</t>
   </si>
   <si>
-    <t>Action, Drama, Sci-Fi</t>
-  </si>
-  <si>
     <t>James McTeigue</t>
   </si>
   <si>
@@ -1483,9 +1264,6 @@
     <t>Pan's Labyrinth</t>
   </si>
   <si>
-    <t>Drama, Fantasy, War</t>
-  </si>
-  <si>
     <t>Guillermo del Toro</t>
   </si>
   <si>
@@ -1504,9 +1282,6 @@
     <t>Monty Python and the Holy Grail</t>
   </si>
   <si>
-    <t>Adventure, Comedy, Fantasy</t>
-  </si>
-  <si>
     <t>Terry Gilliam</t>
   </si>
   <si>
@@ -1525,9 +1300,6 @@
     <t>Warrior</t>
   </si>
   <si>
-    <t>Action, Drama, Sport</t>
-  </si>
-  <si>
     <t>Gavin O'Connor</t>
   </si>
   <si>
@@ -1537,9 +1309,6 @@
     <t>Some Like It Hot</t>
   </si>
   <si>
-    <t>Comedy, Music, Romance</t>
-  </si>
-  <si>
     <t>Marilyn Monroe, Tony Curtis, Jack Lemmon, George Raft</t>
   </si>
   <si>
@@ -1552,9 +1321,6 @@
     <t>The Treasure of the Sierra Madre</t>
   </si>
   <si>
-    <t>Adventure, Drama, Western</t>
-  </si>
-  <si>
     <t>John Huston</t>
   </si>
   <si>
@@ -1573,9 +1339,6 @@
     <t>The Great Escape</t>
   </si>
   <si>
-    <t>Adventure, Drama, History</t>
-  </si>
-  <si>
     <t>John Sturges</t>
   </si>
   <si>
@@ -1585,9 +1348,6 @@
     <t>The Secret in Their Eyes</t>
   </si>
   <si>
-    <t>Drama, Mystery, Romance</t>
-  </si>
-  <si>
     <t>Juan José Campanella</t>
   </si>
   <si>
@@ -1639,9 +1399,6 @@
     <t>Children of Heaven</t>
   </si>
   <si>
-    <t>Drama, Family, Sport</t>
-  </si>
-  <si>
     <t>Majid Majidi</t>
   </si>
   <si>
@@ -1660,9 +1417,6 @@
     <t>To Be or Not to Be</t>
   </si>
   <si>
-    <t>Comedy, Romance, War</t>
-  </si>
-  <si>
     <t>Ernst Lubitsch</t>
   </si>
   <si>
@@ -1672,9 +1426,6 @@
     <t>The Wages of Fear</t>
   </si>
   <si>
-    <t>Adventure, Drama, Thriller</t>
-  </si>
-  <si>
     <t>Henri-Georges Clouzot</t>
   </si>
   <si>
@@ -1693,9 +1444,6 @@
     <t>Sherlock Jr.</t>
   </si>
   <si>
-    <t>Action, Comedy, Romance</t>
-  </si>
-  <si>
     <t>Buster Keaton</t>
   </si>
   <si>
@@ -1720,9 +1468,6 @@
     <t>The Grand Budapest Hotel</t>
   </si>
   <si>
-    <t>Adventure, Comedy, Crime</t>
-  </si>
-  <si>
     <t>Wes Anderson</t>
   </si>
   <si>
@@ -1762,9 +1507,6 @@
     <t>Jaws</t>
   </si>
   <si>
-    <t>Adventure, Mystery, Thriller</t>
-  </si>
-  <si>
     <t>Roy Scheider, Robert Shaw, Richard Dreyfuss, Lorraine Gary</t>
   </si>
   <si>
@@ -1798,9 +1540,6 @@
     <t>Stand by Me</t>
   </si>
   <si>
-    <t>Adventure, Drama</t>
-  </si>
-  <si>
     <t>Rob Reiner</t>
   </si>
   <si>
@@ -1849,18 +1588,12 @@
     <t>The Handmaiden</t>
   </si>
   <si>
-    <t>Drama, Romance, Thriller</t>
-  </si>
-  <si>
     <t>Kim Min-hee, Ha Jung-woo, Cho Jin-woong, Moon So-ri</t>
   </si>
   <si>
     <t>Harry Potter and the Deathly Hallows: Part 2</t>
   </si>
   <si>
-    <t>Adventure, Family, Fantasy</t>
-  </si>
-  <si>
     <t>David Yates</t>
   </si>
   <si>
@@ -1927,9 +1660,6 @@
     <t>Rocky</t>
   </si>
   <si>
-    <t>Drama, Sport</t>
-  </si>
-  <si>
     <t>John G. Avildsen</t>
   </si>
   <si>
@@ -1954,9 +1684,6 @@
     <t>Lock, Stock and Two Smoking Barrels</t>
   </si>
   <si>
-    <t>Action, Comedy, Crime</t>
-  </si>
-  <si>
     <t>Jason Flemyng, Dexter Fletcher, Nick Moran, Jason Statham</t>
   </si>
   <si>
@@ -2032,9 +1759,6 @@
     <t>The Sound of Music</t>
   </si>
   <si>
-    <t>Biography, Drama, Family</t>
-  </si>
-  <si>
     <t>Robert Wise</t>
   </si>
   <si>
@@ -2044,9 +1768,6 @@
     <t>Wild Tales</t>
   </si>
   <si>
-    <t>Comedy, Drama, Thriller</t>
-  </si>
-  <si>
     <t>Damián Szifron</t>
   </si>
   <si>
@@ -2056,9 +1777,6 @@
     <t>Raging Bull</t>
   </si>
   <si>
-    <t>Biography, Drama, Sport</t>
-  </si>
-  <si>
     <t>Robert De Niro, Cathy Moriarty, Joe Pesci, Frank Vincent</t>
   </si>
   <si>
@@ -2089,9 +1807,6 @@
     <t>My Neighbor Totoro</t>
   </si>
   <si>
-    <t>Animation, Comedy, Family</t>
-  </si>
-  <si>
     <t>Hitoshi Takagi, Noriko Hidaka, Chika Sakamoto, Shigesato Itoi</t>
   </si>
   <si>
@@ -2155,9 +1870,6 @@
     <t>The Seventh Seal</t>
   </si>
   <si>
-    <t>Drama, Fantasy</t>
-  </si>
-  <si>
     <t>Max von Sydow, Gunnar Björnstrand, Bengt Ekerot, Nils Poppe</t>
   </si>
   <si>
@@ -2188,9 +1900,6 @@
     <t>The Third Man</t>
   </si>
   <si>
-    <t>Film-Noir, Mystery, Thriller</t>
-  </si>
-  <si>
     <t>Carol Reed</t>
   </si>
   <si>
@@ -2218,9 +1927,6 @@
     <t>Rebecca</t>
   </si>
   <si>
-    <t>Drama, Film-Noir, Mystery</t>
-  </si>
-  <si>
     <t>Laurence Olivier, Joan Fontaine, George Sanders, Judith Anderson</t>
   </si>
   <si>
@@ -2236,9 +1942,6 @@
     <t>Mary and Max</t>
   </si>
   <si>
-    <t>Animation, Comedy, Drama</t>
-  </si>
-  <si>
     <t>Adam Elliot</t>
   </si>
   <si>
@@ -2299,9 +2002,6 @@
     <t>The Gold Rush</t>
   </si>
   <si>
-    <t>Adventure, Comedy, Drama</t>
-  </si>
-  <si>
     <t>Charles Chaplin, Mack Swain, Tom Murray, Henry Bergman</t>
   </si>
   <si>
@@ -2344,13 +2044,31 @@
     <t>Groundhog Day</t>
   </si>
   <si>
-    <t>Comedy, Drama, Fantasy</t>
-  </si>
-  <si>
     <t>Harold Ramis</t>
   </si>
   <si>
     <t>Bill Murray, Andie MacDowell, Chris Elliott, Stephen Tobolowsky</t>
+  </si>
+  <si>
+    <t>Crime</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Biography</t>
+  </si>
+  <si>
+    <t>Adventure</t>
+  </si>
+  <si>
+    <t>Animation</t>
+  </si>
+  <si>
+    <t>Mystery</t>
+  </si>
+  <si>
+    <t>Film-Noir</t>
   </si>
 </sst>
 </file>
@@ -2692,8 +2410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2773,13 +2491,13 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
+        <v>676</v>
+      </c>
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
       </c>
       <c r="H3">
         <v>134.97</v>
@@ -2790,22 +2508,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>2008</v>
       </c>
       <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>677</v>
+      </c>
+      <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
       </c>
       <c r="H4">
         <v>534.86</v>
@@ -2816,7 +2534,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>1993</v>
@@ -2825,13 +2543,13 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>678</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H5">
         <v>96.9</v>
@@ -2842,7 +2560,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>1974</v>
@@ -2851,13 +2569,13 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
+        <v>676</v>
+      </c>
+      <c r="F6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H6">
         <v>57.3</v>
@@ -2868,22 +2586,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>1957</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>676</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H7">
         <v>4.3600000000000003</v>
@@ -2894,22 +2612,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>2003</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>677</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>377.85</v>
@@ -2920,7 +2638,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>1994</v>
@@ -2929,13 +2647,13 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>676</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H9">
         <v>107.93</v>
@@ -2946,22 +2664,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>2010</v>
       </c>
       <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>677</v>
+      </c>
+      <c r="F10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H10">
         <v>292.58</v>
@@ -2972,22 +2690,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C11">
         <v>2001</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>677</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H11">
         <v>315.54000000000002</v>
@@ -2998,7 +2716,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C12">
         <v>1999</v>
@@ -3010,10 +2728,10 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H12">
         <v>37.03</v>
@@ -3024,22 +2742,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C13">
         <v>1994</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H13">
         <v>330.25</v>
@@ -3050,22 +2768,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C14">
         <v>1966</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>679</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H14">
         <v>6.1</v>
@@ -3076,22 +2794,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C15">
         <v>2002</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>677</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H15">
         <v>342.55</v>
@@ -3102,25 +2820,25 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C16">
         <v>2021</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>676</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H16" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -3128,22 +2846,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C17">
         <v>2014</v>
       </c>
       <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>679</v>
+      </c>
+      <c r="F17" t="s">
         <v>18</v>
       </c>
-      <c r="E17" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" t="s">
-        <v>20</v>
-      </c>
       <c r="G17" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="H17">
         <v>188.02</v>
@@ -3154,7 +2872,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C18">
         <v>1990</v>
@@ -3163,13 +2881,13 @@
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>678</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G18" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="H18">
         <v>46.84</v>
@@ -3180,7 +2898,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C19">
         <v>1999</v>
@@ -3189,13 +2907,13 @@
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>677</v>
       </c>
       <c r="F19" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="G19" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="H19">
         <v>171.48</v>
@@ -3206,7 +2924,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C20">
         <v>1975</v>
@@ -3218,10 +2936,10 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="G20" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="H20">
         <v>112</v>
@@ -3232,22 +2950,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C21">
         <v>1980</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>677</v>
       </c>
       <c r="F21" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G21" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="H21">
         <v>290.48</v>
@@ -3258,7 +2976,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C22">
         <v>1999</v>
@@ -3267,13 +2985,13 @@
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>676</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="H22">
         <v>136.80000000000001</v>
@@ -3284,22 +3002,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C23">
         <v>1977</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>677</v>
       </c>
       <c r="F23" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="G23" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H23">
         <v>322.74</v>
@@ -3310,7 +3028,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C24">
         <v>1995</v>
@@ -3319,13 +3037,13 @@
         <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>59</v>
+        <v>676</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G24" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="H24">
         <v>100.13</v>
@@ -3336,7 +3054,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C25">
         <v>1991</v>
@@ -3345,13 +3063,13 @@
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>91</v>
+        <v>676</v>
       </c>
       <c r="F25" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="H25">
         <v>130.74</v>
@@ -3362,7 +3080,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C26">
         <v>1998</v>
@@ -3371,13 +3089,13 @@
         <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G26" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="H26">
         <v>216.54</v>
@@ -3388,22 +3106,22 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C27">
         <v>2001</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E27" t="s">
-        <v>98</v>
+        <v>680</v>
       </c>
       <c r="F27" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="G27" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="H27">
         <v>10.06</v>
@@ -3414,7 +3132,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C28">
         <v>2002</v>
@@ -3423,13 +3141,13 @@
         <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>676</v>
       </c>
       <c r="F28" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="G28" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="H28">
         <v>7.56</v>
@@ -3440,7 +3158,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C29">
         <v>1991</v>
@@ -3449,13 +3167,13 @@
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>71</v>
+        <v>677</v>
       </c>
       <c r="F29" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="G29" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="H29">
         <v>204.84</v>
@@ -3466,22 +3184,22 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C30">
         <v>1997</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>108</v>
+        <v>670</v>
       </c>
       <c r="F30" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="G30" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="H30">
         <v>57.6</v>
@@ -3492,22 +3210,22 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="C31">
         <v>1954</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E31" t="s">
-        <v>113</v>
+        <v>677</v>
       </c>
       <c r="F31" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="G31" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="H31">
         <v>0.27</v>
@@ -3518,25 +3236,25 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C32">
         <v>1946</v>
       </c>
       <c r="D32" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E32" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="G32" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="H32" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -3544,25 +3262,25 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="C33">
         <v>1962</v>
       </c>
       <c r="D33" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E33" t="s">
-        <v>121</v>
+        <v>677</v>
       </c>
       <c r="F33" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="G33" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="H33" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -3570,7 +3288,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C34">
         <v>1994</v>
@@ -3579,13 +3297,13 @@
         <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
+        <v>677</v>
       </c>
       <c r="F34" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="G34" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="H34">
         <v>19.5</v>
@@ -3596,7 +3314,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C35">
         <v>2019</v>
@@ -3605,13 +3323,13 @@
         <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="G35" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="H35">
         <v>53.37</v>
@@ -3622,7 +3340,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="C36">
         <v>2006</v>
@@ -3631,13 +3349,13 @@
         <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>91</v>
+        <v>676</v>
       </c>
       <c r="F36" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G36" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H36">
         <v>132.38</v>
@@ -3648,7 +3366,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="C37">
         <v>2000</v>
@@ -3657,13 +3375,13 @@
         <v>9</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>677</v>
       </c>
       <c r="F37" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="G37" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="H37">
         <v>187.71</v>
@@ -3674,7 +3392,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="C38">
         <v>2014</v>
@@ -3683,13 +3401,13 @@
         <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="G38" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="H38">
         <v>13.09</v>
@@ -3700,22 +3418,22 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="C39">
         <v>1985</v>
       </c>
       <c r="D39" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E39" t="s">
-        <v>141</v>
+        <v>679</v>
       </c>
       <c r="F39" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G39" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="H39">
         <v>210.61</v>
@@ -3726,7 +3444,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="C40">
         <v>1979</v>
@@ -3735,13 +3453,13 @@
         <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>144</v>
+        <v>497</v>
       </c>
       <c r="F40" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="G40" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="H40">
         <v>78.900000000000006</v>
@@ -3752,22 +3470,22 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="C41">
         <v>2006</v>
       </c>
       <c r="D41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" t="s">
         <v>18</v>
       </c>
-      <c r="E41" t="s">
-        <v>147</v>
-      </c>
-      <c r="F41" t="s">
-        <v>20</v>
-      </c>
       <c r="G41" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="H41">
         <v>53.09</v>
@@ -3778,22 +3496,22 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="C42">
         <v>1994</v>
       </c>
       <c r="D42" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="E42" t="s">
-        <v>151</v>
+        <v>680</v>
       </c>
       <c r="F42" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="G42" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="H42">
         <v>422.78</v>
@@ -3804,7 +3522,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="C43">
         <v>1995</v>
@@ -3813,13 +3531,13 @@
         <v>9</v>
       </c>
       <c r="E43" t="s">
-        <v>59</v>
+        <v>676</v>
       </c>
       <c r="F43" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="G43" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="H43">
         <v>23.34</v>
@@ -3830,7 +3548,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="C44">
         <v>1960</v>
@@ -3839,13 +3557,13 @@
         <v>9</v>
       </c>
       <c r="E44" t="s">
-        <v>158</v>
+        <v>497</v>
       </c>
       <c r="F44" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="G44" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="H44">
         <v>32</v>
@@ -3856,7 +3574,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="C45">
         <v>2002</v>
@@ -3865,13 +3583,13 @@
         <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>162</v>
+        <v>678</v>
       </c>
       <c r="F45" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="G45" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="H45">
         <v>32.57</v>
@@ -3882,7 +3600,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="C46">
         <v>1998</v>
@@ -3891,13 +3609,13 @@
         <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>14</v>
+        <v>676</v>
       </c>
       <c r="F46" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G46" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="H46">
         <v>6.72</v>
@@ -3908,7 +3626,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="C47">
         <v>2011</v>
@@ -3917,13 +3635,13 @@
         <v>9</v>
       </c>
       <c r="E47" t="s">
-        <v>169</v>
+        <v>678</v>
       </c>
       <c r="F47" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="G47" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="H47">
         <v>13.18</v>
@@ -3934,22 +3652,22 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="C48">
         <v>1942</v>
       </c>
       <c r="D48" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E48" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="G48" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="H48">
         <v>1.02</v>
@@ -3960,22 +3678,22 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="C49">
         <v>1968</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E49" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="F49" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G49" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="H49">
         <v>5.32</v>
@@ -3986,25 +3704,25 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="C50">
         <v>1988</v>
       </c>
       <c r="D50" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E50" t="s">
-        <v>180</v>
+        <v>680</v>
       </c>
       <c r="F50" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="G50" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="H50" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -4012,22 +3730,22 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="C51">
         <v>1954</v>
       </c>
       <c r="D51" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E51" t="s">
-        <v>184</v>
+        <v>681</v>
       </c>
       <c r="F51" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="G51" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="H51">
         <v>36.76</v>
@@ -4038,7 +3756,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="C52">
         <v>1988</v>
@@ -4047,13 +3765,13 @@
         <v>9</v>
       </c>
       <c r="E52" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="G52" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="H52">
         <v>11.99</v>
@@ -4064,22 +3782,22 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="C53">
         <v>1936</v>
       </c>
       <c r="D53" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="E53" t="s">
-        <v>108</v>
+        <v>670</v>
       </c>
       <c r="F53" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="G53" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="H53">
         <v>0.16</v>
@@ -4090,22 +3808,22 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="C54">
         <v>1931</v>
       </c>
       <c r="D54" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="E54" t="s">
-        <v>108</v>
+        <v>670</v>
       </c>
       <c r="F54" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="G54" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="H54">
         <v>0.02</v>
@@ -4116,22 +3834,22 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="C55">
         <v>2019</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E55" t="s">
-        <v>33</v>
+        <v>677</v>
       </c>
       <c r="F55" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="G55" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="H55">
         <v>858.37</v>
@@ -4142,22 +3860,22 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="C56">
         <v>2018</v>
       </c>
       <c r="D56" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E56" t="s">
-        <v>198</v>
+        <v>680</v>
       </c>
       <c r="F56" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="G56" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="H56">
         <v>190.24</v>
@@ -4168,22 +3886,22 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="C57">
         <v>2018</v>
       </c>
       <c r="D57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E57" t="s">
-        <v>40</v>
+        <v>677</v>
       </c>
       <c r="F57" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="G57" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="H57">
         <v>678.82</v>
@@ -4194,7 +3912,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="C58">
         <v>2019</v>
@@ -4203,13 +3921,13 @@
         <v>9</v>
       </c>
       <c r="E58" t="s">
-        <v>91</v>
+        <v>676</v>
       </c>
       <c r="F58" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="G58" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="H58">
         <v>335.45</v>
@@ -4220,7 +3938,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="C59">
         <v>2003</v>
@@ -4229,13 +3947,13 @@
         <v>9</v>
       </c>
       <c r="E59" t="s">
-        <v>121</v>
+        <v>677</v>
       </c>
       <c r="F59" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="G59" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="H59">
         <v>0.71</v>
@@ -4246,7 +3964,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="C60">
         <v>2012</v>
@@ -4255,13 +3973,13 @@
         <v>9</v>
       </c>
       <c r="E60" t="s">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G60" t="s">
-        <v>211</v>
+        <v>177</v>
       </c>
       <c r="H60">
         <v>162.81</v>
@@ -4272,22 +3990,22 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="C61">
         <v>1981</v>
       </c>
       <c r="D61" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E61" t="s">
-        <v>213</v>
+        <v>677</v>
       </c>
       <c r="F61" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G61" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="H61">
         <v>248.16</v>
@@ -4298,7 +4016,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="C62">
         <v>1979</v>
@@ -4307,13 +4025,13 @@
         <v>9</v>
       </c>
       <c r="E62" t="s">
-        <v>216</v>
+        <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G62" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="H62">
         <v>83.47</v>
@@ -4324,7 +4042,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>218</v>
+        <v>182</v>
       </c>
       <c r="C63">
         <v>1980</v>
@@ -4333,13 +4051,13 @@
         <v>9</v>
       </c>
       <c r="E63" t="s">
-        <v>219</v>
+        <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="G63" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="H63">
         <v>44.02</v>
@@ -4350,25 +4068,25 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="C64">
         <v>1985</v>
       </c>
       <c r="D64" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E64" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="G64" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="H64" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -4376,22 +4094,22 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="C65">
         <v>2012</v>
       </c>
       <c r="D65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" t="s">
+        <v>677</v>
+      </c>
+      <c r="F65" t="s">
         <v>18</v>
       </c>
-      <c r="E65" t="s">
-        <v>227</v>
-      </c>
-      <c r="F65" t="s">
-        <v>20</v>
-      </c>
       <c r="G65" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="H65">
         <v>448.14</v>
@@ -4402,7 +4120,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="C66">
         <v>1986</v>
@@ -4411,13 +4129,13 @@
         <v>9</v>
       </c>
       <c r="E66" t="s">
-        <v>40</v>
+        <v>677</v>
       </c>
       <c r="F66" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="G66" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="H66">
         <v>85.16</v>
@@ -4428,7 +4146,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="C67">
         <v>2000</v>
@@ -4437,13 +4155,13 @@
         <v>9</v>
       </c>
       <c r="E67" t="s">
-        <v>184</v>
+        <v>681</v>
       </c>
       <c r="F67" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G67" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="H67">
         <v>25.54</v>
@@ -4454,22 +4172,22 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="C68">
         <v>2016</v>
       </c>
       <c r="D68" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>234</v>
+        <v>680</v>
       </c>
       <c r="F68" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="G68" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
       <c r="H68">
         <v>5.0199999999999996</v>
@@ -4480,7 +4198,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="C69">
         <v>2018</v>
@@ -4492,10 +4210,10 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="G69" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c r="H69">
         <v>1.66</v>
@@ -4506,7 +4224,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="C70">
         <v>1995</v>
@@ -4515,13 +4233,13 @@
         <v>9</v>
       </c>
       <c r="E70" t="s">
-        <v>23</v>
+        <v>678</v>
       </c>
       <c r="F70" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="G70" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="H70">
         <v>75.599999999999994</v>
@@ -4532,22 +4250,22 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="C71">
         <v>2017</v>
       </c>
       <c r="D71" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E71" t="s">
-        <v>244</v>
+        <v>680</v>
       </c>
       <c r="F71" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="G71" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="H71">
         <v>209.73</v>
@@ -4558,22 +4276,22 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="C72">
         <v>2008</v>
       </c>
       <c r="D72" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="E72" t="s">
-        <v>98</v>
+        <v>680</v>
       </c>
       <c r="F72" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="G72" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="H72">
         <v>223.81</v>
@@ -4584,7 +4302,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="C73">
         <v>1984</v>
@@ -4593,13 +4311,13 @@
         <v>9</v>
       </c>
       <c r="E73" t="s">
-        <v>162</v>
+        <v>678</v>
       </c>
       <c r="F73" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="G73" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="H73">
         <v>51.97</v>
@@ -4610,7 +4328,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="C74">
         <v>2006</v>
@@ -4619,13 +4337,13 @@
         <v>9</v>
       </c>
       <c r="E74" t="s">
-        <v>253</v>
+        <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="G74" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="H74">
         <v>11.29</v>
@@ -4636,22 +4354,22 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="C75">
         <v>1964</v>
       </c>
       <c r="D75" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E75" t="s">
-        <v>257</v>
+        <v>670</v>
       </c>
       <c r="F75" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="G75" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="H75">
         <v>0.28000000000000003</v>
@@ -4662,25 +4380,25 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="C76">
         <v>1950</v>
       </c>
       <c r="D76" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="E76" t="s">
-        <v>261</v>
+        <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>262</v>
+        <v>218</v>
       </c>
       <c r="G76" t="s">
-        <v>263</v>
+        <v>219</v>
       </c>
       <c r="H76" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -4688,7 +4406,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>264</v>
+        <v>220</v>
       </c>
       <c r="C77">
         <v>1981</v>
@@ -4697,13 +4415,13 @@
         <v>9</v>
       </c>
       <c r="E77" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="G77" t="s">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="H77">
         <v>11.49</v>
@@ -4714,22 +4432,22 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>267</v>
+        <v>223</v>
       </c>
       <c r="C78">
         <v>2009</v>
       </c>
       <c r="D78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E78" t="s">
-        <v>268</v>
+        <v>670</v>
       </c>
       <c r="F78" t="s">
-        <v>269</v>
+        <v>224</v>
       </c>
       <c r="G78" t="s">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="H78">
         <v>6.53</v>
@@ -4740,25 +4458,25 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>271</v>
+        <v>226</v>
       </c>
       <c r="C79">
         <v>1957</v>
       </c>
       <c r="D79" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E79" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="G79" t="s">
-        <v>272</v>
+        <v>227</v>
       </c>
       <c r="H79" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -4766,22 +4484,22 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>273</v>
+        <v>228</v>
       </c>
       <c r="C80">
         <v>1957</v>
       </c>
       <c r="D80" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E80" t="s">
-        <v>59</v>
+        <v>676</v>
       </c>
       <c r="F80" t="s">
-        <v>262</v>
+        <v>218</v>
       </c>
       <c r="G80" t="s">
-        <v>274</v>
+        <v>229</v>
       </c>
       <c r="H80">
         <v>8.18</v>
@@ -4792,22 +4510,22 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>275</v>
+        <v>230</v>
       </c>
       <c r="C81">
         <v>1940</v>
       </c>
       <c r="D81" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="E81" t="s">
-        <v>276</v>
+        <v>670</v>
       </c>
       <c r="F81" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="G81" t="s">
-        <v>277</v>
+        <v>231</v>
       </c>
       <c r="H81">
         <v>0.28999999999999998</v>
@@ -4818,25 +4536,25 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>278</v>
+        <v>232</v>
       </c>
       <c r="C82">
         <v>1963</v>
       </c>
       <c r="D82" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E82" t="s">
-        <v>59</v>
+        <v>676</v>
       </c>
       <c r="F82" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="G82" t="s">
-        <v>279</v>
+        <v>233</v>
       </c>
       <c r="H82" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -4844,25 +4562,25 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>280</v>
+        <v>234</v>
       </c>
       <c r="C83">
         <v>2023</v>
       </c>
       <c r="D83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E83" t="s">
-        <v>281</v>
+        <v>677</v>
       </c>
       <c r="F83" t="s">
-        <v>282</v>
+        <v>235</v>
       </c>
       <c r="G83" t="s">
-        <v>283</v>
+        <v>236</v>
       </c>
       <c r="H83" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -4870,7 +4588,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>284</v>
+        <v>237</v>
       </c>
       <c r="C84">
         <v>1995</v>
@@ -4879,13 +4597,13 @@
         <v>9</v>
       </c>
       <c r="E84" t="s">
-        <v>19</v>
+        <v>677</v>
       </c>
       <c r="F84" t="s">
-        <v>285</v>
+        <v>238</v>
       </c>
       <c r="G84" t="s">
-        <v>286</v>
+        <v>239</v>
       </c>
       <c r="H84">
         <v>67.44</v>
@@ -4896,22 +4614,22 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>287</v>
+        <v>240</v>
       </c>
       <c r="C85">
         <v>2022</v>
       </c>
       <c r="D85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E85" t="s">
-        <v>113</v>
+        <v>677</v>
       </c>
       <c r="F85" t="s">
-        <v>288</v>
+        <v>241</v>
       </c>
       <c r="G85" t="s">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="H85">
         <v>718.73</v>
@@ -4922,7 +4640,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="C86">
         <v>1997</v>
@@ -4931,13 +4649,13 @@
         <v>9</v>
       </c>
       <c r="E86" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="G86" t="s">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="H86">
         <v>138.43</v>
@@ -4948,7 +4666,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>293</v>
+        <v>246</v>
       </c>
       <c r="C87">
         <v>2009</v>
@@ -4957,13 +4675,13 @@
         <v>9</v>
       </c>
       <c r="E87" t="s">
-        <v>294</v>
+        <v>679</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G87" t="s">
-        <v>295</v>
+        <v>247</v>
       </c>
       <c r="H87">
         <v>120.54</v>
@@ -4974,22 +4692,22 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>296</v>
+        <v>248</v>
       </c>
       <c r="C88">
         <v>1983</v>
       </c>
       <c r="D88" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E88" t="s">
-        <v>79</v>
+        <v>677</v>
       </c>
       <c r="F88" t="s">
-        <v>297</v>
+        <v>249</v>
       </c>
       <c r="G88" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="H88">
         <v>309.13</v>
@@ -5000,7 +4718,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>298</v>
+        <v>250</v>
       </c>
       <c r="C89">
         <v>2000</v>
@@ -5012,10 +4730,10 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>299</v>
+        <v>251</v>
       </c>
       <c r="G89" t="s">
-        <v>300</v>
+        <v>252</v>
       </c>
       <c r="H89">
         <v>3.64</v>
@@ -5026,7 +4744,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>301</v>
+        <v>253</v>
       </c>
       <c r="C90">
         <v>1999</v>
@@ -5038,10 +4756,10 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>302</v>
+        <v>254</v>
       </c>
       <c r="G90" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="H90">
         <v>130.1</v>
@@ -5052,7 +4770,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="C91">
         <v>1983</v>
@@ -5061,13 +4779,13 @@
         <v>9</v>
       </c>
       <c r="E91" t="s">
-        <v>14</v>
+        <v>676</v>
       </c>
       <c r="F91" t="s">
-        <v>305</v>
+        <v>257</v>
       </c>
       <c r="G91" t="s">
-        <v>306</v>
+        <v>258</v>
       </c>
       <c r="H91">
         <v>45.6</v>
@@ -5078,7 +4796,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>307</v>
+        <v>259</v>
       </c>
       <c r="C92">
         <v>2004</v>
@@ -5087,13 +4805,13 @@
         <v>9</v>
       </c>
       <c r="E92" t="s">
-        <v>308</v>
+        <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="G92" t="s">
-        <v>310</v>
+        <v>261</v>
       </c>
       <c r="H92">
         <v>34.4</v>
@@ -5104,7 +4822,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>311</v>
+        <v>262</v>
       </c>
       <c r="C93">
         <v>1971</v>
@@ -5113,13 +4831,13 @@
         <v>9</v>
       </c>
       <c r="E93" t="s">
-        <v>312</v>
+        <v>676</v>
       </c>
       <c r="F93" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="G93" t="s">
-        <v>313</v>
+        <v>263</v>
       </c>
       <c r="H93">
         <v>6.21</v>
@@ -5130,22 +4848,22 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>314</v>
+        <v>264</v>
       </c>
       <c r="C94">
         <v>1968</v>
       </c>
       <c r="D94" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="E94" t="s">
-        <v>315</v>
+        <v>679</v>
       </c>
       <c r="F94" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="G94" t="s">
-        <v>316</v>
+        <v>265</v>
       </c>
       <c r="H94">
         <v>56.95</v>
@@ -5156,7 +4874,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>317</v>
+        <v>266</v>
       </c>
       <c r="C95">
         <v>1987</v>
@@ -5165,13 +4883,13 @@
         <v>9</v>
       </c>
       <c r="E95" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="G95" t="s">
-        <v>318</v>
+        <v>267</v>
       </c>
       <c r="H95">
         <v>46.36</v>
@@ -5182,7 +4900,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>319</v>
+        <v>268</v>
       </c>
       <c r="C96">
         <v>1992</v>
@@ -5191,13 +4909,13 @@
         <v>9</v>
       </c>
       <c r="E96" t="s">
-        <v>320</v>
+        <v>676</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G96" t="s">
-        <v>321</v>
+        <v>269</v>
       </c>
       <c r="H96">
         <v>2.83</v>
@@ -5208,7 +4926,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>322</v>
+        <v>270</v>
       </c>
       <c r="C97">
         <v>2012</v>
@@ -5220,10 +4938,10 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>323</v>
+        <v>271</v>
       </c>
       <c r="G97" t="s">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="H97">
         <v>0.69</v>
@@ -5234,25 +4952,25 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>325</v>
+        <v>273</v>
       </c>
       <c r="C98">
         <v>2020</v>
       </c>
       <c r="D98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E98" t="s">
-        <v>23</v>
+        <v>678</v>
       </c>
       <c r="F98" t="s">
-        <v>326</v>
+        <v>274</v>
       </c>
       <c r="G98" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="H98" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -5260,7 +4978,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>328</v>
+        <v>276</v>
       </c>
       <c r="C99">
         <v>1984</v>
@@ -5269,13 +4987,13 @@
         <v>9</v>
       </c>
       <c r="E99" t="s">
-        <v>14</v>
+        <v>676</v>
       </c>
       <c r="F99" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G99" t="s">
-        <v>329</v>
+        <v>277</v>
       </c>
       <c r="H99">
         <v>5.32</v>
@@ -5286,22 +5004,22 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>330</v>
+        <v>278</v>
       </c>
       <c r="C100">
         <v>1995</v>
       </c>
       <c r="D100" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="E100" t="s">
-        <v>244</v>
+        <v>680</v>
       </c>
       <c r="F100" t="s">
-        <v>331</v>
+        <v>279</v>
       </c>
       <c r="G100" t="s">
-        <v>332</v>
+        <v>280</v>
       </c>
       <c r="H100">
         <v>191.8</v>
@@ -5312,7 +5030,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>333</v>
+        <v>281</v>
       </c>
       <c r="C101">
         <v>2010</v>
@@ -5321,13 +5039,13 @@
         <v>9</v>
       </c>
       <c r="E101" t="s">
-        <v>334</v>
+        <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>335</v>
+        <v>282</v>
       </c>
       <c r="G101" t="s">
-        <v>336</v>
+        <v>283</v>
       </c>
       <c r="H101">
         <v>6.86</v>
@@ -5338,22 +5056,22 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>337</v>
+        <v>284</v>
       </c>
       <c r="C102">
         <v>1952</v>
       </c>
       <c r="D102" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="E102" t="s">
-        <v>338</v>
+        <v>670</v>
       </c>
       <c r="F102" t="s">
-        <v>339</v>
+        <v>285</v>
       </c>
       <c r="G102" t="s">
-        <v>340</v>
+        <v>286</v>
       </c>
       <c r="H102">
         <v>8.82</v>
@@ -5364,22 +5082,22 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>341</v>
+        <v>287</v>
       </c>
       <c r="C103">
         <v>2009</v>
       </c>
       <c r="D103" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E103" t="s">
-        <v>244</v>
+        <v>680</v>
       </c>
       <c r="F103" t="s">
-        <v>342</v>
+        <v>288</v>
       </c>
       <c r="G103" t="s">
-        <v>343</v>
+        <v>289</v>
       </c>
       <c r="H103">
         <v>293</v>
@@ -5390,25 +5108,25 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>344</v>
+        <v>290</v>
       </c>
       <c r="C104">
         <v>1962</v>
       </c>
       <c r="D104" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E104" t="s">
-        <v>14</v>
+        <v>676</v>
       </c>
       <c r="F104" t="s">
-        <v>345</v>
+        <v>291</v>
       </c>
       <c r="G104" t="s">
-        <v>346</v>
+        <v>292</v>
       </c>
       <c r="H104" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -5416,7 +5134,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>347</v>
+        <v>293</v>
       </c>
       <c r="C105">
         <v>2001</v>
@@ -5425,13 +5143,13 @@
         <v>9</v>
       </c>
       <c r="E105" t="s">
-        <v>348</v>
+        <v>670</v>
       </c>
       <c r="F105" t="s">
-        <v>349</v>
+        <v>294</v>
       </c>
       <c r="G105" t="s">
-        <v>350</v>
+        <v>295</v>
       </c>
       <c r="H105">
         <v>33.229999999999997</v>
@@ -5442,22 +5160,22 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>351</v>
+        <v>296</v>
       </c>
       <c r="C106">
         <v>1958</v>
       </c>
       <c r="D106" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E106" t="s">
-        <v>352</v>
+        <v>681</v>
       </c>
       <c r="F106" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="G106" t="s">
-        <v>353</v>
+        <v>297</v>
       </c>
       <c r="H106">
         <v>3.2</v>
@@ -5468,22 +5186,22 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>354</v>
+        <v>298</v>
       </c>
       <c r="C107">
         <v>1962</v>
       </c>
       <c r="D107" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E107" t="s">
-        <v>355</v>
+        <v>679</v>
       </c>
       <c r="F107" t="s">
-        <v>356</v>
+        <v>299</v>
       </c>
       <c r="G107" t="s">
-        <v>357</v>
+        <v>300</v>
       </c>
       <c r="H107">
         <v>44.82</v>
@@ -5494,22 +5212,22 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>358</v>
+        <v>301</v>
       </c>
       <c r="C108">
         <v>1941</v>
       </c>
       <c r="D108" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E108" t="s">
-        <v>334</v>
+        <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>359</v>
+        <v>302</v>
       </c>
       <c r="G108" t="s">
-        <v>360</v>
+        <v>303</v>
       </c>
       <c r="H108">
         <v>1.59</v>
@@ -5520,22 +5238,22 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>361</v>
+        <v>304</v>
       </c>
       <c r="C109">
         <v>1997</v>
       </c>
       <c r="D109" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E109" t="s">
-        <v>198</v>
+        <v>680</v>
       </c>
       <c r="F109" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="G109" t="s">
-        <v>362</v>
+        <v>305</v>
       </c>
       <c r="H109">
         <v>2.38</v>
@@ -5546,22 +5264,22 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>363</v>
+        <v>306</v>
       </c>
       <c r="C110">
         <v>2010</v>
       </c>
       <c r="D110" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="E110" t="s">
-        <v>244</v>
+        <v>680</v>
       </c>
       <c r="F110" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="G110" t="s">
-        <v>364</v>
+        <v>307</v>
       </c>
       <c r="H110">
         <v>415</v>
@@ -5572,22 +5290,22 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>365</v>
+        <v>308</v>
       </c>
       <c r="C111">
         <v>1927</v>
       </c>
       <c r="D111" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E111" t="s">
-        <v>366</v>
+        <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>367</v>
+        <v>309</v>
       </c>
       <c r="G111" t="s">
-        <v>368</v>
+        <v>310</v>
       </c>
       <c r="H111">
         <v>1.24</v>
@@ -5598,22 +5316,22 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>369</v>
+        <v>311</v>
       </c>
       <c r="C112">
         <v>1959</v>
       </c>
       <c r="D112" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E112" t="s">
-        <v>370</v>
+        <v>677</v>
       </c>
       <c r="F112" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="G112" t="s">
-        <v>371</v>
+        <v>312</v>
       </c>
       <c r="H112">
         <v>13.28</v>
@@ -5624,22 +5342,22 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>372</v>
+        <v>313</v>
       </c>
       <c r="C113">
         <v>1973</v>
       </c>
       <c r="D113" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E113" t="s">
-        <v>373</v>
+        <v>670</v>
       </c>
       <c r="F113" t="s">
-        <v>374</v>
+        <v>314</v>
       </c>
       <c r="G113" t="s">
-        <v>375</v>
+        <v>315</v>
       </c>
       <c r="H113">
         <v>159.6</v>
@@ -5650,22 +5368,22 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>376</v>
+        <v>316</v>
       </c>
       <c r="C114">
         <v>2011</v>
       </c>
       <c r="D114" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E114" t="s">
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>377</v>
+        <v>317</v>
       </c>
       <c r="G114" t="s">
-        <v>378</v>
+        <v>318</v>
       </c>
       <c r="H114">
         <v>7.1</v>
@@ -5676,22 +5394,22 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>379</v>
+        <v>319</v>
       </c>
       <c r="C115">
         <v>1931</v>
       </c>
       <c r="D115" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="E115" t="s">
-        <v>380</v>
+        <v>676</v>
       </c>
       <c r="F115" t="s">
-        <v>367</v>
+        <v>309</v>
       </c>
       <c r="G115" t="s">
-        <v>381</v>
+        <v>320</v>
       </c>
       <c r="H115">
         <v>0.03</v>
@@ -5702,22 +5420,22 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>382</v>
+        <v>321</v>
       </c>
       <c r="C116">
         <v>1952</v>
       </c>
       <c r="D116" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E116" t="s">
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="G116" t="s">
-        <v>383</v>
+        <v>322</v>
       </c>
       <c r="H116">
         <v>0.06</v>
@@ -5728,22 +5446,22 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>384</v>
+        <v>323</v>
       </c>
       <c r="C117">
         <v>1960</v>
       </c>
       <c r="D117" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E117" t="s">
-        <v>108</v>
+        <v>670</v>
       </c>
       <c r="F117" t="s">
-        <v>262</v>
+        <v>218</v>
       </c>
       <c r="G117" t="s">
-        <v>385</v>
+        <v>324</v>
       </c>
       <c r="H117">
         <v>18.600000000000001</v>
@@ -5754,22 +5472,22 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>386</v>
+        <v>325</v>
       </c>
       <c r="C118">
         <v>1944</v>
       </c>
       <c r="D118" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="E118" t="s">
-        <v>387</v>
+        <v>676</v>
       </c>
       <c r="F118" t="s">
-        <v>262</v>
+        <v>218</v>
       </c>
       <c r="G118" t="s">
-        <v>388</v>
+        <v>326</v>
       </c>
       <c r="H118">
         <v>5.72</v>
@@ -5780,25 +5498,25 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>389</v>
+        <v>327</v>
       </c>
       <c r="C119">
         <v>1961</v>
       </c>
       <c r="D119" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E119" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>390</v>
+        <v>328</v>
       </c>
       <c r="G119" t="s">
-        <v>391</v>
+        <v>329</v>
       </c>
       <c r="H119" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -5806,22 +5524,22 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>392</v>
+        <v>330</v>
       </c>
       <c r="C120">
         <v>2007</v>
       </c>
       <c r="D120" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E120" t="s">
-        <v>393</v>
+        <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>394</v>
+        <v>331</v>
       </c>
       <c r="G120" t="s">
-        <v>395</v>
+        <v>332</v>
       </c>
       <c r="H120">
         <v>1.22</v>
@@ -5832,22 +5550,22 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>396</v>
+        <v>333</v>
       </c>
       <c r="C121">
         <v>1948</v>
       </c>
       <c r="D121" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E121" t="s">
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>397</v>
+        <v>334</v>
       </c>
       <c r="G121" t="s">
-        <v>398</v>
+        <v>335</v>
       </c>
       <c r="H121">
         <v>0.33</v>
@@ -5858,22 +5576,22 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>399</v>
+        <v>336</v>
       </c>
       <c r="C122">
         <v>2016</v>
       </c>
       <c r="D122" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E122" t="s">
-        <v>400</v>
+        <v>677</v>
       </c>
       <c r="F122" t="s">
-        <v>401</v>
+        <v>337</v>
       </c>
       <c r="G122" t="s">
-        <v>402</v>
+        <v>338</v>
       </c>
       <c r="H122">
         <v>12.39</v>
@@ -5884,22 +5602,22 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>403</v>
+        <v>339</v>
       </c>
       <c r="C123">
         <v>1921</v>
       </c>
       <c r="D123" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="E123" t="s">
-        <v>404</v>
+        <v>670</v>
       </c>
       <c r="F123" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="G123" t="s">
-        <v>405</v>
+        <v>340</v>
       </c>
       <c r="H123">
         <v>5.45</v>
@@ -5910,7 +5628,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>406</v>
+        <v>341</v>
       </c>
       <c r="C124">
         <v>2023</v>
@@ -5919,16 +5637,16 @@
         <v>9</v>
       </c>
       <c r="E124" t="s">
-        <v>407</v>
+        <v>677</v>
       </c>
       <c r="F124" t="s">
-        <v>408</v>
+        <v>342</v>
       </c>
       <c r="G124" t="s">
-        <v>409</v>
+        <v>343</v>
       </c>
       <c r="H124" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -5936,22 +5654,22 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>410</v>
+        <v>344</v>
       </c>
       <c r="C125">
         <v>2021</v>
       </c>
       <c r="D125" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E125" t="s">
-        <v>79</v>
+        <v>677</v>
       </c>
       <c r="F125" t="s">
-        <v>411</v>
+        <v>345</v>
       </c>
       <c r="G125" t="s">
-        <v>412</v>
+        <v>346</v>
       </c>
       <c r="H125">
         <v>804.75</v>
@@ -5962,7 +5680,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>413</v>
+        <v>347</v>
       </c>
       <c r="C126">
         <v>2013</v>
@@ -5971,13 +5689,13 @@
         <v>9</v>
       </c>
       <c r="E126" t="s">
-        <v>414</v>
+        <v>678</v>
       </c>
       <c r="F126" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G126" t="s">
-        <v>415</v>
+        <v>348</v>
       </c>
       <c r="H126">
         <v>116.9</v>
@@ -5988,7 +5706,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>416</v>
+        <v>349</v>
       </c>
       <c r="C127">
         <v>2019</v>
@@ -5997,13 +5715,13 @@
         <v>9</v>
       </c>
       <c r="E127" t="s">
-        <v>417</v>
+        <v>677</v>
       </c>
       <c r="F127" t="s">
-        <v>302</v>
+        <v>254</v>
       </c>
       <c r="G127" t="s">
-        <v>418</v>
+        <v>350</v>
       </c>
       <c r="H127">
         <v>159.22999999999999</v>
@@ -6014,22 +5732,22 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>419</v>
+        <v>351</v>
       </c>
       <c r="C128">
         <v>1993</v>
       </c>
       <c r="D128" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E128" t="s">
-        <v>40</v>
+        <v>677</v>
       </c>
       <c r="F128" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G128" t="s">
-        <v>420</v>
+        <v>352</v>
       </c>
       <c r="H128">
         <v>402.45</v>
@@ -6040,7 +5758,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>421</v>
+        <v>353</v>
       </c>
       <c r="C129">
         <v>1976</v>
@@ -6049,13 +5767,13 @@
         <v>9</v>
       </c>
       <c r="E129" t="s">
-        <v>14</v>
+        <v>676</v>
       </c>
       <c r="F129" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G129" t="s">
-        <v>422</v>
+        <v>354</v>
       </c>
       <c r="H129">
         <v>28.26</v>
@@ -6066,7 +5784,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>423</v>
+        <v>355</v>
       </c>
       <c r="C130">
         <v>2007</v>
@@ -6075,13 +5793,13 @@
         <v>9</v>
       </c>
       <c r="E130" t="s">
-        <v>91</v>
+        <v>676</v>
       </c>
       <c r="F130" t="s">
-        <v>424</v>
+        <v>356</v>
       </c>
       <c r="G130" t="s">
-        <v>425</v>
+        <v>357</v>
       </c>
       <c r="H130">
         <v>74.28</v>
@@ -6092,7 +5810,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>426</v>
+        <v>358</v>
       </c>
       <c r="C131">
         <v>2010</v>
@@ -6101,13 +5819,13 @@
         <v>9</v>
       </c>
       <c r="E131" t="s">
-        <v>184</v>
+        <v>681</v>
       </c>
       <c r="F131" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G131" t="s">
-        <v>427</v>
+        <v>359</v>
       </c>
       <c r="H131">
         <v>128.01</v>
@@ -6118,25 +5836,25 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>428</v>
+        <v>360</v>
       </c>
       <c r="C132">
         <v>2020</v>
       </c>
       <c r="D132" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E132" t="s">
-        <v>334</v>
+        <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>429</v>
+        <v>361</v>
       </c>
       <c r="G132" t="s">
-        <v>430</v>
+        <v>362</v>
       </c>
       <c r="H132" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -6144,7 +5862,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>431</v>
+        <v>363</v>
       </c>
       <c r="C133">
         <v>2000</v>
@@ -6153,13 +5871,13 @@
         <v>9</v>
       </c>
       <c r="E133" t="s">
-        <v>432</v>
+        <v>670</v>
       </c>
       <c r="F133" t="s">
-        <v>433</v>
+        <v>364</v>
       </c>
       <c r="G133" t="s">
-        <v>434</v>
+        <v>365</v>
       </c>
       <c r="H133">
         <v>30.33</v>
@@ -6170,7 +5888,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>435</v>
+        <v>366</v>
       </c>
       <c r="C134">
         <v>1995</v>
@@ -6179,13 +5897,13 @@
         <v>9</v>
       </c>
       <c r="E134" t="s">
-        <v>14</v>
+        <v>676</v>
       </c>
       <c r="F134" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G134" t="s">
-        <v>436</v>
+        <v>367</v>
       </c>
       <c r="H134">
         <v>42.44</v>
@@ -6196,22 +5914,22 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>437</v>
+        <v>368</v>
       </c>
       <c r="C135">
         <v>2001</v>
       </c>
       <c r="D135" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E135" t="s">
-        <v>438</v>
+        <v>678</v>
       </c>
       <c r="F135" t="s">
-        <v>439</v>
+        <v>369</v>
       </c>
       <c r="G135" t="s">
-        <v>440</v>
+        <v>370</v>
       </c>
       <c r="H135">
         <v>170.74</v>
@@ -6222,7 +5940,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>441</v>
+        <v>371</v>
       </c>
       <c r="C136">
         <v>2003</v>
@@ -6231,13 +5949,13 @@
         <v>9</v>
       </c>
       <c r="E136" t="s">
-        <v>19</v>
+        <v>677</v>
       </c>
       <c r="F136" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G136" t="s">
-        <v>442</v>
+        <v>372</v>
       </c>
       <c r="H136">
         <v>70.099999999999994</v>
@@ -6248,7 +5966,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>443</v>
+        <v>373</v>
       </c>
       <c r="C137">
         <v>1982</v>
@@ -6257,13 +5975,13 @@
         <v>9</v>
       </c>
       <c r="E137" t="s">
-        <v>444</v>
+        <v>497</v>
       </c>
       <c r="F137" t="s">
-        <v>445</v>
+        <v>374</v>
       </c>
       <c r="G137" t="s">
-        <v>446</v>
+        <v>375</v>
       </c>
       <c r="H137">
         <v>13.78</v>
@@ -6274,7 +5992,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>447</v>
+        <v>376</v>
       </c>
       <c r="C138">
         <v>2007</v>
@@ -6286,10 +6004,10 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>448</v>
+        <v>377</v>
       </c>
       <c r="G138" t="s">
-        <v>449</v>
+        <v>378</v>
       </c>
       <c r="H138">
         <v>40.22</v>
@@ -6300,22 +6018,22 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>450</v>
+        <v>379</v>
       </c>
       <c r="C139">
         <v>2018</v>
       </c>
       <c r="D139" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E139" t="s">
-        <v>169</v>
+        <v>678</v>
       </c>
       <c r="F139" t="s">
-        <v>451</v>
+        <v>380</v>
       </c>
       <c r="G139" t="s">
-        <v>452</v>
+        <v>381</v>
       </c>
       <c r="H139">
         <v>85.08</v>
@@ -6326,22 +6044,22 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>453</v>
+        <v>382</v>
       </c>
       <c r="C140">
         <v>2005</v>
       </c>
       <c r="D140" t="s">
+        <v>17</v>
+      </c>
+      <c r="E140" t="s">
+        <v>677</v>
+      </c>
+      <c r="F140" t="s">
         <v>18</v>
       </c>
-      <c r="E140" t="s">
-        <v>19</v>
-      </c>
-      <c r="F140" t="s">
-        <v>20</v>
-      </c>
       <c r="G140" t="s">
-        <v>454</v>
+        <v>383</v>
       </c>
       <c r="H140">
         <v>206.85</v>
@@ -6352,22 +6070,22 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>455</v>
+        <v>384</v>
       </c>
       <c r="C141">
         <v>1998</v>
       </c>
       <c r="D141" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E141" t="s">
-        <v>268</v>
+        <v>670</v>
       </c>
       <c r="F141" t="s">
-        <v>456</v>
+        <v>385</v>
       </c>
       <c r="G141" t="s">
-        <v>457</v>
+        <v>386</v>
       </c>
       <c r="H141">
         <v>125.62</v>
@@ -6378,22 +6096,22 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>458</v>
+        <v>387</v>
       </c>
       <c r="C142">
         <v>2004</v>
       </c>
       <c r="D142" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E142" t="s">
-        <v>98</v>
+        <v>680</v>
       </c>
       <c r="F142" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="G142" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="H142">
         <v>4.71</v>
@@ -6404,22 +6122,22 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>460</v>
+        <v>389</v>
       </c>
       <c r="C143">
         <v>1999</v>
       </c>
       <c r="D143" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E143" t="s">
-        <v>253</v>
+        <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>461</v>
+        <v>390</v>
       </c>
       <c r="G143" t="s">
-        <v>462</v>
+        <v>391</v>
       </c>
       <c r="H143">
         <v>293.51</v>
@@ -6430,22 +6148,22 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>463</v>
+        <v>392</v>
       </c>
       <c r="C144">
         <v>2003</v>
       </c>
       <c r="D144" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="E144" t="s">
-        <v>244</v>
+        <v>680</v>
       </c>
       <c r="F144" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="G144" t="s">
-        <v>464</v>
+        <v>393</v>
       </c>
       <c r="H144">
         <v>380.84</v>
@@ -6456,22 +6174,22 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>465</v>
+        <v>394</v>
       </c>
       <c r="C145">
         <v>1989</v>
       </c>
       <c r="D145" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E145" t="s">
-        <v>213</v>
+        <v>677</v>
       </c>
       <c r="F145" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G145" t="s">
-        <v>466</v>
+        <v>395</v>
       </c>
       <c r="H145">
         <v>197.17</v>
@@ -6482,7 +6200,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>467</v>
+        <v>396</v>
       </c>
       <c r="C146">
         <v>1992</v>
@@ -6491,13 +6209,13 @@
         <v>9</v>
       </c>
       <c r="E146" t="s">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>468</v>
+        <v>397</v>
       </c>
       <c r="G146" t="s">
-        <v>469</v>
+        <v>398</v>
       </c>
       <c r="H146">
         <v>101.16</v>
@@ -6508,22 +6226,22 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>470</v>
+        <v>399</v>
       </c>
       <c r="C147">
         <v>1950</v>
       </c>
       <c r="D147" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="E147" t="s">
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>471</v>
+        <v>400</v>
       </c>
       <c r="G147" t="s">
-        <v>472</v>
+        <v>401</v>
       </c>
       <c r="H147">
         <v>0.01</v>
@@ -6534,7 +6252,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>473</v>
+        <v>402</v>
       </c>
       <c r="C148">
         <v>1988</v>
@@ -6543,13 +6261,13 @@
         <v>9</v>
       </c>
       <c r="E148" t="s">
-        <v>474</v>
+        <v>677</v>
       </c>
       <c r="F148" t="s">
-        <v>475</v>
+        <v>403</v>
       </c>
       <c r="G148" t="s">
-        <v>476</v>
+        <v>404</v>
       </c>
       <c r="H148">
         <v>83.01</v>
@@ -6560,7 +6278,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>477</v>
+        <v>405</v>
       </c>
       <c r="C149">
         <v>2005</v>
@@ -6569,13 +6287,13 @@
         <v>9</v>
       </c>
       <c r="E149" t="s">
-        <v>478</v>
+        <v>677</v>
       </c>
       <c r="F149" t="s">
-        <v>479</v>
+        <v>406</v>
       </c>
       <c r="G149" t="s">
-        <v>480</v>
+        <v>407</v>
       </c>
       <c r="H149">
         <v>70.510000000000005</v>
@@ -6586,7 +6304,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>481</v>
+        <v>408</v>
       </c>
       <c r="C150">
         <v>2004</v>
@@ -6595,13 +6313,13 @@
         <v>9</v>
       </c>
       <c r="E150" t="s">
-        <v>23</v>
+        <v>678</v>
       </c>
       <c r="F150" t="s">
-        <v>482</v>
+        <v>409</v>
       </c>
       <c r="G150" t="s">
-        <v>483</v>
+        <v>410</v>
       </c>
       <c r="H150">
         <v>5.51</v>
@@ -6612,7 +6330,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>484</v>
+        <v>411</v>
       </c>
       <c r="C151">
         <v>1974</v>
@@ -6621,13 +6339,13 @@
         <v>9</v>
       </c>
       <c r="E151" t="s">
-        <v>253</v>
+        <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="G151" t="s">
-        <v>485</v>
+        <v>412</v>
       </c>
       <c r="H151">
         <v>8.49</v>
@@ -6638,7 +6356,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>486</v>
+        <v>413</v>
       </c>
       <c r="C152">
         <v>2006</v>
@@ -6647,13 +6365,13 @@
         <v>9</v>
       </c>
       <c r="E152" t="s">
-        <v>487</v>
+        <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>488</v>
+        <v>414</v>
       </c>
       <c r="G152" t="s">
-        <v>489</v>
+        <v>415</v>
       </c>
       <c r="H152">
         <v>37.630000000000003</v>
@@ -6664,7 +6382,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>490</v>
+        <v>416</v>
       </c>
       <c r="C153">
         <v>1997</v>
@@ -6673,13 +6391,13 @@
         <v>9</v>
       </c>
       <c r="E153" t="s">
-        <v>59</v>
+        <v>676</v>
       </c>
       <c r="F153" t="s">
-        <v>491</v>
+        <v>417</v>
       </c>
       <c r="G153" t="s">
-        <v>492</v>
+        <v>418</v>
       </c>
       <c r="H153">
         <v>64.62</v>
@@ -6690,22 +6408,22 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>493</v>
+        <v>419</v>
       </c>
       <c r="C154">
         <v>1975</v>
       </c>
       <c r="D154" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E154" t="s">
-        <v>494</v>
+        <v>679</v>
       </c>
       <c r="F154" t="s">
-        <v>495</v>
+        <v>420</v>
       </c>
       <c r="G154" t="s">
-        <v>496</v>
+        <v>421</v>
       </c>
       <c r="H154">
         <v>1.23</v>
@@ -6716,22 +6434,22 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>497</v>
+        <v>422</v>
       </c>
       <c r="C155">
         <v>1939</v>
       </c>
       <c r="D155" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="E155" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>498</v>
+        <v>423</v>
       </c>
       <c r="G155" t="s">
-        <v>499</v>
+        <v>424</v>
       </c>
       <c r="H155">
         <v>198.68</v>
@@ -6742,22 +6460,22 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>500</v>
+        <v>425</v>
       </c>
       <c r="C156">
         <v>2011</v>
       </c>
       <c r="D156" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E156" t="s">
-        <v>501</v>
+        <v>677</v>
       </c>
       <c r="F156" t="s">
-        <v>502</v>
+        <v>426</v>
       </c>
       <c r="G156" t="s">
-        <v>503</v>
+        <v>427</v>
       </c>
       <c r="H156">
         <v>13.66</v>
@@ -6768,22 +6486,22 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>504</v>
+        <v>428</v>
       </c>
       <c r="C157">
         <v>1959</v>
       </c>
       <c r="D157" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="E157" t="s">
-        <v>505</v>
+        <v>670</v>
       </c>
       <c r="F157" t="s">
-        <v>262</v>
+        <v>218</v>
       </c>
       <c r="G157" t="s">
-        <v>506</v>
+        <v>429</v>
       </c>
       <c r="H157">
         <v>25</v>
@@ -6794,7 +6512,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>507</v>
+        <v>430</v>
       </c>
       <c r="C158">
         <v>1965</v>
@@ -6803,13 +6521,13 @@
         <v>9</v>
       </c>
       <c r="E158" t="s">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G158" t="s">
-        <v>508</v>
+        <v>431</v>
       </c>
       <c r="H158">
         <v>15</v>
@@ -6820,22 +6538,22 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>509</v>
+        <v>432</v>
       </c>
       <c r="C159">
         <v>1948</v>
       </c>
       <c r="D159" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="E159" t="s">
-        <v>510</v>
+        <v>679</v>
       </c>
       <c r="F159" t="s">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="G159" t="s">
-        <v>512</v>
+        <v>434</v>
       </c>
       <c r="H159">
         <v>5.01</v>
@@ -6846,25 +6564,25 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>513</v>
+        <v>435</v>
       </c>
       <c r="C160">
         <v>1980</v>
       </c>
       <c r="D160" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E160" t="s">
-        <v>438</v>
+        <v>678</v>
       </c>
       <c r="F160" t="s">
-        <v>514</v>
+        <v>436</v>
       </c>
       <c r="G160" t="s">
-        <v>515</v>
+        <v>437</v>
       </c>
       <c r="H160" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -6872,22 +6590,22 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>516</v>
+        <v>438</v>
       </c>
       <c r="C161">
         <v>1963</v>
       </c>
       <c r="D161" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E161" t="s">
-        <v>517</v>
+        <v>679</v>
       </c>
       <c r="F161" t="s">
-        <v>518</v>
+        <v>439</v>
       </c>
       <c r="G161" t="s">
-        <v>519</v>
+        <v>440</v>
       </c>
       <c r="H161">
         <v>12.1</v>
@@ -6898,7 +6616,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>520</v>
+        <v>441</v>
       </c>
       <c r="C162">
         <v>2009</v>
@@ -6907,13 +6625,13 @@
         <v>9</v>
       </c>
       <c r="E162" t="s">
-        <v>521</v>
+        <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>522</v>
+        <v>442</v>
       </c>
       <c r="G162" t="s">
-        <v>523</v>
+        <v>443</v>
       </c>
       <c r="H162">
         <v>6.39</v>
@@ -6924,7 +6642,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>524</v>
+        <v>444</v>
       </c>
       <c r="C163">
         <v>1985</v>
@@ -6933,13 +6651,13 @@
         <v>9</v>
       </c>
       <c r="E163" t="s">
-        <v>417</v>
+        <v>677</v>
       </c>
       <c r="F163" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="G163" t="s">
-        <v>525</v>
+        <v>445</v>
       </c>
       <c r="H163">
         <v>4.1399999999999997</v>
@@ -6950,22 +6668,22 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>526</v>
+        <v>446</v>
       </c>
       <c r="C164">
         <v>1950</v>
       </c>
       <c r="D164" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E164" t="s">
-        <v>59</v>
+        <v>676</v>
       </c>
       <c r="F164" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="G164" t="s">
-        <v>527</v>
+        <v>447</v>
       </c>
       <c r="H164">
         <v>0.1</v>
@@ -6976,25 +6694,25 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>528</v>
+        <v>448</v>
       </c>
       <c r="C165">
         <v>2019</v>
       </c>
       <c r="D165" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E165" t="s">
-        <v>244</v>
+        <v>680</v>
       </c>
       <c r="F165" t="s">
-        <v>529</v>
+        <v>449</v>
       </c>
       <c r="G165" t="s">
-        <v>530</v>
+        <v>450</v>
       </c>
       <c r="H165" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -7002,25 +6720,25 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>531</v>
+        <v>451</v>
       </c>
       <c r="C166">
         <v>1953</v>
       </c>
       <c r="D166" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E166" t="s">
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>532</v>
+        <v>452</v>
       </c>
       <c r="G166" t="s">
-        <v>533</v>
+        <v>453</v>
       </c>
       <c r="H166" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -7028,22 +6746,22 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>534</v>
+        <v>454</v>
       </c>
       <c r="C167">
         <v>1954</v>
       </c>
       <c r="D167" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E167" t="s">
-        <v>320</v>
+        <v>676</v>
       </c>
       <c r="F167" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="G167" t="s">
-        <v>535</v>
+        <v>455</v>
       </c>
       <c r="H167">
         <v>0.01</v>
@@ -7054,25 +6772,25 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>536</v>
+        <v>456</v>
       </c>
       <c r="C168">
         <v>1961</v>
       </c>
       <c r="D168" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E168" t="s">
-        <v>227</v>
+        <v>677</v>
       </c>
       <c r="F168" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="G168" t="s">
-        <v>537</v>
+        <v>457</v>
       </c>
       <c r="H168" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -7080,22 +6798,22 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>538</v>
+        <v>458</v>
       </c>
       <c r="C169">
         <v>1997</v>
       </c>
       <c r="D169" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E169" t="s">
-        <v>539</v>
+        <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>540</v>
+        <v>459</v>
       </c>
       <c r="G169" t="s">
-        <v>541</v>
+        <v>460</v>
       </c>
       <c r="H169">
         <v>0.93</v>
@@ -7106,22 +6824,22 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>542</v>
+        <v>461</v>
       </c>
       <c r="C170">
         <v>1928</v>
       </c>
       <c r="D170" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="E170" t="s">
-        <v>23</v>
+        <v>678</v>
       </c>
       <c r="F170" t="s">
-        <v>543</v>
+        <v>462</v>
       </c>
       <c r="G170" t="s">
-        <v>544</v>
+        <v>463</v>
       </c>
       <c r="H170">
         <v>0.02</v>
@@ -7132,25 +6850,25 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>545</v>
+        <v>464</v>
       </c>
       <c r="C171">
         <v>1942</v>
       </c>
       <c r="D171" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="E171" t="s">
-        <v>546</v>
+        <v>670</v>
       </c>
       <c r="F171" t="s">
-        <v>547</v>
+        <v>465</v>
       </c>
       <c r="G171" t="s">
-        <v>548</v>
+        <v>466</v>
       </c>
       <c r="H171" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -7158,25 +6876,25 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>549</v>
+        <v>467</v>
       </c>
       <c r="C172">
         <v>1953</v>
       </c>
       <c r="D172" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E172" t="s">
-        <v>550</v>
+        <v>679</v>
       </c>
       <c r="F172" t="s">
-        <v>551</v>
+        <v>468</v>
       </c>
       <c r="G172" t="s">
-        <v>552</v>
+        <v>469</v>
       </c>
       <c r="H172" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -7184,22 +6902,22 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>553</v>
+        <v>470</v>
       </c>
       <c r="C173">
         <v>1955</v>
       </c>
       <c r="D173" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E173" t="s">
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>554</v>
+        <v>471</v>
       </c>
       <c r="G173" t="s">
-        <v>555</v>
+        <v>472</v>
       </c>
       <c r="H173">
         <v>0.54</v>
@@ -7210,22 +6928,22 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="C174">
         <v>1924</v>
       </c>
       <c r="D174" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="E174" t="s">
-        <v>557</v>
+        <v>677</v>
       </c>
       <c r="F174" t="s">
-        <v>558</v>
+        <v>474</v>
       </c>
       <c r="G174" t="s">
-        <v>559</v>
+        <v>475</v>
       </c>
       <c r="H174">
         <v>0.98</v>
@@ -7236,25 +6954,25 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>560</v>
+        <v>476</v>
       </c>
       <c r="C175">
         <v>2005</v>
       </c>
       <c r="D175" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E175" t="s">
-        <v>393</v>
+        <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>561</v>
+        <v>477</v>
       </c>
       <c r="G175" t="s">
-        <v>562</v>
+        <v>478</v>
       </c>
       <c r="H175" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -7262,7 +6980,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>563</v>
+        <v>479</v>
       </c>
       <c r="C176">
         <v>2013</v>
@@ -7271,13 +6989,13 @@
         <v>9</v>
       </c>
       <c r="E176" t="s">
-        <v>59</v>
+        <v>676</v>
       </c>
       <c r="F176" t="s">
-        <v>335</v>
+        <v>282</v>
       </c>
       <c r="G176" t="s">
-        <v>564</v>
+        <v>480</v>
       </c>
       <c r="H176">
         <v>61</v>
@@ -7288,7 +7006,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>565</v>
+        <v>481</v>
       </c>
       <c r="C177">
         <v>2014</v>
@@ -7297,13 +7015,13 @@
         <v>9</v>
       </c>
       <c r="E177" t="s">
-        <v>566</v>
+        <v>679</v>
       </c>
       <c r="F177" t="s">
-        <v>567</v>
+        <v>482</v>
       </c>
       <c r="G177" t="s">
-        <v>568</v>
+        <v>483</v>
       </c>
       <c r="H177">
         <v>59.1</v>
@@ -7314,7 +7032,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>569</v>
+        <v>484</v>
       </c>
       <c r="C178">
         <v>2016</v>
@@ -7323,13 +7041,13 @@
         <v>9</v>
       </c>
       <c r="E178" t="s">
-        <v>23</v>
+        <v>678</v>
       </c>
       <c r="F178" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="G178" t="s">
-        <v>570</v>
+        <v>485</v>
       </c>
       <c r="H178">
         <v>67.209999999999994</v>
@@ -7340,7 +7058,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>571</v>
+        <v>486</v>
       </c>
       <c r="C179">
         <v>2015</v>
@@ -7349,13 +7067,13 @@
         <v>9</v>
       </c>
       <c r="E179" t="s">
-        <v>40</v>
+        <v>677</v>
       </c>
       <c r="F179" t="s">
-        <v>572</v>
+        <v>487</v>
       </c>
       <c r="G179" t="s">
-        <v>573</v>
+        <v>488</v>
       </c>
       <c r="H179">
         <v>154.06</v>
@@ -7366,22 +7084,22 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>574</v>
+        <v>489</v>
       </c>
       <c r="C180">
         <v>2003</v>
       </c>
       <c r="D180" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E180" t="s">
-        <v>79</v>
+        <v>677</v>
       </c>
       <c r="F180" t="s">
-        <v>575</v>
+        <v>490</v>
       </c>
       <c r="G180" t="s">
-        <v>576</v>
+        <v>491</v>
       </c>
       <c r="H180">
         <v>305.41000000000003</v>
@@ -7392,7 +7110,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>577</v>
+        <v>492</v>
       </c>
       <c r="C181">
         <v>1982</v>
@@ -7401,13 +7119,13 @@
         <v>9</v>
       </c>
       <c r="E181" t="s">
-        <v>478</v>
+        <v>677</v>
       </c>
       <c r="F181" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="G181" t="s">
-        <v>578</v>
+        <v>493</v>
       </c>
       <c r="H181">
         <v>32.869999999999997</v>
@@ -7418,22 +7136,22 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>579</v>
+        <v>494</v>
       </c>
       <c r="C182">
         <v>1975</v>
       </c>
       <c r="D182" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E182" t="s">
-        <v>580</v>
+        <v>679</v>
       </c>
       <c r="F182" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G182" t="s">
-        <v>581</v>
+        <v>495</v>
       </c>
       <c r="H182">
         <v>260</v>
@@ -7444,7 +7162,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>582</v>
+        <v>496</v>
       </c>
       <c r="C183">
         <v>1973</v>
@@ -7453,13 +7171,13 @@
         <v>9</v>
       </c>
       <c r="E183" t="s">
-        <v>583</v>
+        <v>497</v>
       </c>
       <c r="F183" t="s">
-        <v>584</v>
+        <v>498</v>
       </c>
       <c r="G183" t="s">
-        <v>585</v>
+        <v>499</v>
       </c>
       <c r="H183">
         <v>232.91</v>
@@ -7470,22 +7188,22 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>586</v>
+        <v>500</v>
       </c>
       <c r="C184">
         <v>2019</v>
       </c>
       <c r="D184" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E184" t="s">
-        <v>400</v>
+        <v>677</v>
       </c>
       <c r="F184" t="s">
-        <v>587</v>
+        <v>501</v>
       </c>
       <c r="G184" t="s">
-        <v>588</v>
+        <v>502</v>
       </c>
       <c r="H184">
         <v>117.62</v>
@@ -7496,7 +7214,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>589</v>
+        <v>503</v>
       </c>
       <c r="C185">
         <v>2014</v>
@@ -7505,13 +7223,13 @@
         <v>9</v>
       </c>
       <c r="E185" t="s">
-        <v>253</v>
+        <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G185" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="H185">
         <v>167.77</v>
@@ -7522,7 +7240,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>591</v>
+        <v>505</v>
       </c>
       <c r="C186">
         <v>1986</v>
@@ -7531,13 +7249,13 @@
         <v>9</v>
       </c>
       <c r="E186" t="s">
-        <v>592</v>
+        <v>679</v>
       </c>
       <c r="F186" t="s">
-        <v>593</v>
+        <v>506</v>
       </c>
       <c r="G186" t="s">
-        <v>594</v>
+        <v>507</v>
       </c>
       <c r="H186">
         <v>52.29</v>
@@ -7548,22 +7266,22 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>595</v>
+        <v>508</v>
       </c>
       <c r="C187">
         <v>2011</v>
       </c>
       <c r="D187" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E187" t="s">
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>596</v>
+        <v>509</v>
       </c>
       <c r="G187" t="s">
-        <v>597</v>
+        <v>510</v>
       </c>
       <c r="H187">
         <v>169.71</v>
@@ -7574,7 +7292,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>598</v>
+        <v>511</v>
       </c>
       <c r="C188">
         <v>1998</v>
@@ -7583,13 +7301,13 @@
         <v>9</v>
       </c>
       <c r="E188" t="s">
-        <v>432</v>
+        <v>670</v>
       </c>
       <c r="F188" t="s">
-        <v>599</v>
+        <v>512</v>
       </c>
       <c r="G188" t="s">
-        <v>600</v>
+        <v>513</v>
       </c>
       <c r="H188">
         <v>17.5</v>
@@ -7600,22 +7318,22 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>601</v>
+        <v>514</v>
       </c>
       <c r="C189">
         <v>2002</v>
       </c>
       <c r="D189" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E189" t="s">
-        <v>67</v>
+        <v>678</v>
       </c>
       <c r="F189" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G189" t="s">
-        <v>602</v>
+        <v>515</v>
       </c>
       <c r="H189">
         <v>164.62</v>
@@ -7626,22 +7344,22 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>603</v>
+        <v>516</v>
       </c>
       <c r="C190">
         <v>2007</v>
       </c>
       <c r="D190" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="E190" t="s">
-        <v>244</v>
+        <v>680</v>
       </c>
       <c r="F190" t="s">
-        <v>604</v>
+        <v>517</v>
       </c>
       <c r="G190" t="s">
-        <v>605</v>
+        <v>518</v>
       </c>
       <c r="H190">
         <v>206.45</v>
@@ -7652,7 +7370,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>606</v>
+        <v>519</v>
       </c>
       <c r="C191">
         <v>1984</v>
@@ -7661,13 +7379,13 @@
         <v>9</v>
       </c>
       <c r="E191" t="s">
-        <v>71</v>
+        <v>677</v>
       </c>
       <c r="F191" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="G191" t="s">
-        <v>607</v>
+        <v>520</v>
       </c>
       <c r="H191">
         <v>38.4</v>
@@ -7678,22 +7396,22 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>608</v>
+        <v>521</v>
       </c>
       <c r="C192">
         <v>2016</v>
       </c>
       <c r="D192" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E192" t="s">
-        <v>609</v>
+        <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="G192" t="s">
-        <v>610</v>
+        <v>522</v>
       </c>
       <c r="H192">
         <v>2.0099999999999998</v>
@@ -7704,22 +7422,22 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>611</v>
+        <v>523</v>
       </c>
       <c r="C193">
         <v>2011</v>
       </c>
       <c r="D193" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E193" t="s">
-        <v>612</v>
+        <v>679</v>
       </c>
       <c r="F193" t="s">
-        <v>613</v>
+        <v>524</v>
       </c>
       <c r="G193" t="s">
-        <v>614</v>
+        <v>525</v>
       </c>
       <c r="H193">
         <v>381.01</v>
@@ -7730,22 +7448,22 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>615</v>
+        <v>526</v>
       </c>
       <c r="C194">
         <v>1939</v>
       </c>
       <c r="D194" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E194" t="s">
-        <v>612</v>
+        <v>679</v>
       </c>
       <c r="F194" t="s">
-        <v>498</v>
+        <v>423</v>
       </c>
       <c r="G194" t="s">
-        <v>616</v>
+        <v>527</v>
       </c>
       <c r="H194">
         <v>2.08</v>
@@ -7756,22 +7474,22 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>617</v>
+        <v>528</v>
       </c>
       <c r="C195">
         <v>1989</v>
       </c>
       <c r="D195" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E195" t="s">
-        <v>268</v>
+        <v>670</v>
       </c>
       <c r="F195" t="s">
-        <v>456</v>
+        <v>385</v>
       </c>
       <c r="G195" t="s">
-        <v>618</v>
+        <v>529</v>
       </c>
       <c r="H195">
         <v>95.86</v>
@@ -7782,7 +7500,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>619</v>
+        <v>530</v>
       </c>
       <c r="C196">
         <v>2015</v>
@@ -7791,13 +7509,13 @@
         <v>9</v>
       </c>
       <c r="E196" t="s">
-        <v>67</v>
+        <v>678</v>
       </c>
       <c r="F196" t="s">
-        <v>620</v>
+        <v>531</v>
       </c>
       <c r="G196" t="s">
-        <v>621</v>
+        <v>532</v>
       </c>
       <c r="H196">
         <v>45.06</v>
@@ -7808,7 +7526,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>622</v>
+        <v>533</v>
       </c>
       <c r="C197">
         <v>2017</v>
@@ -7817,13 +7535,13 @@
         <v>9</v>
       </c>
       <c r="E197" t="s">
-        <v>373</v>
+        <v>670</v>
       </c>
       <c r="F197" t="s">
-        <v>623</v>
+        <v>534</v>
       </c>
       <c r="G197" t="s">
-        <v>624</v>
+        <v>535</v>
       </c>
       <c r="H197">
         <v>54.51</v>
@@ -7834,22 +7552,22 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>625</v>
+        <v>536</v>
       </c>
       <c r="C198">
         <v>2015</v>
       </c>
       <c r="D198" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E198" t="s">
-        <v>244</v>
+        <v>680</v>
       </c>
       <c r="F198" t="s">
-        <v>342</v>
+        <v>288</v>
       </c>
       <c r="G198" t="s">
-        <v>626</v>
+        <v>537</v>
       </c>
       <c r="H198">
         <v>356.46</v>
@@ -7860,7 +7578,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>627</v>
+        <v>538</v>
       </c>
       <c r="C199">
         <v>1986</v>
@@ -7869,13 +7587,13 @@
         <v>9</v>
       </c>
       <c r="E199" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>628</v>
+        <v>539</v>
       </c>
       <c r="G199" t="s">
-        <v>629</v>
+        <v>540</v>
       </c>
       <c r="H199">
         <v>138.53</v>
@@ -7886,7 +7604,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>630</v>
+        <v>541</v>
       </c>
       <c r="C200">
         <v>1996</v>
@@ -7895,13 +7613,13 @@
         <v>9</v>
       </c>
       <c r="E200" t="s">
-        <v>320</v>
+        <v>676</v>
       </c>
       <c r="F200" t="s">
-        <v>599</v>
+        <v>512</v>
       </c>
       <c r="G200" t="s">
-        <v>631</v>
+        <v>542</v>
       </c>
       <c r="H200">
         <v>24.61</v>
@@ -7912,7 +7630,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>632</v>
+        <v>543</v>
       </c>
       <c r="C201">
         <v>2017</v>
@@ -7921,13 +7639,13 @@
         <v>9</v>
       </c>
       <c r="E201" t="s">
-        <v>478</v>
+        <v>677</v>
       </c>
       <c r="F201" t="s">
-        <v>587</v>
+        <v>501</v>
       </c>
       <c r="G201" t="s">
-        <v>633</v>
+        <v>544</v>
       </c>
       <c r="H201">
         <v>226.28</v>
@@ -7938,22 +7656,22 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>634</v>
+        <v>545</v>
       </c>
       <c r="C202">
         <v>1976</v>
       </c>
       <c r="D202" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E202" t="s">
-        <v>635</v>
+        <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>636</v>
+        <v>546</v>
       </c>
       <c r="G202" t="s">
-        <v>637</v>
+        <v>547</v>
       </c>
       <c r="H202">
         <v>117.24</v>
@@ -7964,22 +7682,22 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>638</v>
+        <v>548</v>
       </c>
       <c r="C203">
         <v>2001</v>
       </c>
       <c r="D203" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="E203" t="s">
-        <v>244</v>
+        <v>680</v>
       </c>
       <c r="F203" t="s">
-        <v>342</v>
+        <v>288</v>
       </c>
       <c r="G203" t="s">
-        <v>639</v>
+        <v>549</v>
       </c>
       <c r="H203">
         <v>289.92</v>
@@ -7990,7 +7708,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>640</v>
+        <v>550</v>
       </c>
       <c r="C204">
         <v>1996</v>
@@ -8002,10 +7720,10 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>641</v>
+        <v>551</v>
       </c>
       <c r="G204" t="s">
-        <v>642</v>
+        <v>552</v>
       </c>
       <c r="H204">
         <v>16.5</v>
@@ -8016,7 +7734,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>643</v>
+        <v>553</v>
       </c>
       <c r="C205">
         <v>1998</v>
@@ -8025,13 +7743,13 @@
         <v>9</v>
       </c>
       <c r="E205" t="s">
-        <v>644</v>
+        <v>677</v>
       </c>
       <c r="F205" t="s">
-        <v>433</v>
+        <v>364</v>
       </c>
       <c r="G205" t="s">
-        <v>645</v>
+        <v>554</v>
       </c>
       <c r="H205">
         <v>3.9</v>
@@ -8042,7 +7760,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>646</v>
+        <v>555</v>
       </c>
       <c r="C206">
         <v>2007</v>
@@ -8051,13 +7769,13 @@
         <v>9</v>
       </c>
       <c r="E206" t="s">
-        <v>355</v>
+        <v>679</v>
       </c>
       <c r="F206" t="s">
-        <v>647</v>
+        <v>556</v>
       </c>
       <c r="G206" t="s">
-        <v>648</v>
+        <v>557</v>
       </c>
       <c r="H206">
         <v>18.350000000000001</v>
@@ -8068,7 +7786,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>649</v>
+        <v>558</v>
       </c>
       <c r="C207">
         <v>2008</v>
@@ -8080,10 +7798,10 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>468</v>
+        <v>397</v>
       </c>
       <c r="G207" t="s">
-        <v>650</v>
+        <v>559</v>
       </c>
       <c r="H207">
         <v>148.1</v>
@@ -8094,7 +7812,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>651</v>
+        <v>560</v>
       </c>
       <c r="C208">
         <v>2015</v>
@@ -8103,13 +7821,13 @@
         <v>9</v>
       </c>
       <c r="E208" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>652</v>
+        <v>561</v>
       </c>
       <c r="G208" t="s">
-        <v>653</v>
+        <v>562</v>
       </c>
       <c r="H208">
         <v>14.68</v>
@@ -8120,22 +7838,22 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>654</v>
+        <v>563</v>
       </c>
       <c r="C209">
         <v>2010</v>
       </c>
       <c r="D209" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E209" t="s">
-        <v>198</v>
+        <v>680</v>
       </c>
       <c r="F209" t="s">
-        <v>655</v>
+        <v>564</v>
       </c>
       <c r="G209" t="s">
-        <v>656</v>
+        <v>565</v>
       </c>
       <c r="H209">
         <v>217.58</v>
@@ -8146,7 +7864,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>657</v>
+        <v>566</v>
       </c>
       <c r="C210">
         <v>1995</v>
@@ -8155,13 +7873,13 @@
         <v>9</v>
       </c>
       <c r="E210" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>658</v>
+        <v>567</v>
       </c>
       <c r="G210" t="s">
-        <v>659</v>
+        <v>568</v>
       </c>
       <c r="H210">
         <v>5.54</v>
@@ -8172,22 +7890,22 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>660</v>
+        <v>569</v>
       </c>
       <c r="C211">
         <v>2003</v>
       </c>
       <c r="D211" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E211" t="s">
-        <v>59</v>
+        <v>676</v>
       </c>
       <c r="F211" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="G211" t="s">
-        <v>661</v>
+        <v>570</v>
       </c>
       <c r="H211">
         <v>0.01</v>
@@ -8198,7 +7916,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>662</v>
+        <v>571</v>
       </c>
       <c r="C212">
         <v>1978</v>
@@ -8207,13 +7925,13 @@
         <v>9</v>
       </c>
       <c r="E212" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>663</v>
+        <v>572</v>
       </c>
       <c r="G212" t="s">
-        <v>664</v>
+        <v>573</v>
       </c>
       <c r="H212">
         <v>48.98</v>
@@ -8224,22 +7942,22 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>665</v>
+        <v>574</v>
       </c>
       <c r="C213">
         <v>2004</v>
       </c>
       <c r="D213" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E213" t="s">
-        <v>635</v>
+        <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>468</v>
+        <v>397</v>
       </c>
       <c r="G213" t="s">
-        <v>666</v>
+        <v>575</v>
       </c>
       <c r="H213">
         <v>100.49</v>
@@ -8250,7 +7968,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>667</v>
+        <v>576</v>
       </c>
       <c r="C214">
         <v>2013</v>
@@ -8259,13 +7977,13 @@
         <v>9</v>
       </c>
       <c r="E214" t="s">
-        <v>400</v>
+        <v>677</v>
       </c>
       <c r="F214" t="s">
-        <v>439</v>
+        <v>369</v>
       </c>
       <c r="G214" t="s">
-        <v>668</v>
+        <v>577</v>
       </c>
       <c r="H214">
         <v>26.95</v>
@@ -8276,22 +7994,22 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>669</v>
+        <v>578</v>
       </c>
       <c r="C215">
         <v>1965</v>
       </c>
       <c r="D215" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="E215" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="F215" t="s">
-        <v>671</v>
+        <v>579</v>
       </c>
       <c r="G215" t="s">
-        <v>672</v>
+        <v>580</v>
       </c>
       <c r="H215">
         <v>163.21</v>
@@ -8302,7 +8020,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>673</v>
+        <v>581</v>
       </c>
       <c r="C216">
         <v>2014</v>
@@ -8311,13 +8029,13 @@
         <v>9</v>
       </c>
       <c r="E216" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="F216" t="s">
-        <v>675</v>
+        <v>582</v>
       </c>
       <c r="G216" t="s">
-        <v>676</v>
+        <v>583</v>
       </c>
       <c r="H216">
         <v>3.11</v>
@@ -8328,7 +8046,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>677</v>
+        <v>584</v>
       </c>
       <c r="C217">
         <v>1980</v>
@@ -8340,10 +8058,10 @@
         <v>678</v>
       </c>
       <c r="F217" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G217" t="s">
-        <v>679</v>
+        <v>585</v>
       </c>
       <c r="H217">
         <v>23.38</v>
@@ -8354,7 +8072,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>680</v>
+        <v>586</v>
       </c>
       <c r="C218">
         <v>2013</v>
@@ -8363,13 +8081,13 @@
         <v>9</v>
       </c>
       <c r="E218" t="s">
-        <v>23</v>
+        <v>678</v>
       </c>
       <c r="F218" t="s">
-        <v>681</v>
+        <v>587</v>
       </c>
       <c r="G218" t="s">
-        <v>682</v>
+        <v>588</v>
       </c>
       <c r="H218">
         <v>56.67</v>
@@ -8380,25 +8098,25 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>683</v>
+        <v>589</v>
       </c>
       <c r="C219">
         <v>1975</v>
       </c>
       <c r="D219" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E219" t="s">
-        <v>294</v>
+        <v>679</v>
       </c>
       <c r="F219" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="G219" t="s">
-        <v>684</v>
+        <v>590</v>
       </c>
       <c r="H219" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -8406,25 +8124,25 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>685</v>
+        <v>591</v>
       </c>
       <c r="C220">
         <v>2009</v>
       </c>
       <c r="D220" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="E220" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="F220" t="s">
-        <v>686</v>
+        <v>592</v>
       </c>
       <c r="G220" t="s">
-        <v>687</v>
+        <v>593</v>
       </c>
       <c r="H220" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
@@ -8432,22 +8150,22 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>688</v>
+        <v>594</v>
       </c>
       <c r="C221">
         <v>1988</v>
       </c>
       <c r="D221" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="E221" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="F221" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="G221" t="s">
-        <v>690</v>
+        <v>595</v>
       </c>
       <c r="H221">
         <v>1.1100000000000001</v>
@@ -8458,22 +8176,22 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>691</v>
+        <v>596</v>
       </c>
       <c r="C222">
         <v>1959</v>
       </c>
       <c r="D222" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="E222" t="s">
-        <v>592</v>
+        <v>679</v>
       </c>
       <c r="F222" t="s">
-        <v>692</v>
+        <v>597</v>
       </c>
       <c r="G222" t="s">
-        <v>693</v>
+        <v>598</v>
       </c>
       <c r="H222">
         <v>74.7</v>
@@ -8484,22 +8202,22 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>694</v>
+        <v>599</v>
       </c>
       <c r="C223">
         <v>1967</v>
       </c>
       <c r="D223" t="s">
-        <v>695</v>
+        <v>600</v>
       </c>
       <c r="E223" t="s">
-        <v>14</v>
+        <v>676</v>
       </c>
       <c r="F223" t="s">
-        <v>696</v>
+        <v>601</v>
       </c>
       <c r="G223" t="s">
-        <v>697</v>
+        <v>602</v>
       </c>
       <c r="H223">
         <v>16.22</v>
@@ -8510,7 +8228,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>698</v>
+        <v>603</v>
       </c>
       <c r="C224">
         <v>1976</v>
@@ -8522,13 +8240,13 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G224" t="s">
-        <v>699</v>
+        <v>604</v>
       </c>
       <c r="H224" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -8536,22 +8254,22 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>700</v>
+        <v>605</v>
       </c>
       <c r="C225">
         <v>1995</v>
       </c>
       <c r="D225" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E225" t="s">
-        <v>14</v>
+        <v>676</v>
       </c>
       <c r="F225" t="s">
-        <v>701</v>
+        <v>606</v>
       </c>
       <c r="G225" t="s">
-        <v>702</v>
+        <v>607</v>
       </c>
       <c r="H225">
         <v>0.31</v>
@@ -8562,22 +8280,22 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>703</v>
+        <v>608</v>
       </c>
       <c r="C226">
         <v>1999</v>
       </c>
       <c r="D226" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E226" t="s">
-        <v>198</v>
+        <v>680</v>
       </c>
       <c r="F226" t="s">
-        <v>604</v>
+        <v>517</v>
       </c>
       <c r="G226" t="s">
-        <v>704</v>
+        <v>609</v>
       </c>
       <c r="H226">
         <v>23.16</v>
@@ -8588,7 +8306,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>705</v>
+        <v>610</v>
       </c>
       <c r="C227">
         <v>2004</v>
@@ -8597,13 +8315,13 @@
         <v>9</v>
       </c>
       <c r="E227" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>658</v>
+        <v>567</v>
       </c>
       <c r="G227" t="s">
-        <v>706</v>
+        <v>611</v>
       </c>
       <c r="H227">
         <v>5.82</v>
@@ -8614,25 +8332,25 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>707</v>
+        <v>612</v>
       </c>
       <c r="C228">
         <v>1966</v>
       </c>
       <c r="D228" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E228" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>708</v>
+        <v>613</v>
       </c>
       <c r="G228" t="s">
-        <v>709</v>
+        <v>614</v>
       </c>
       <c r="H228" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
@@ -8640,25 +8358,25 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>710</v>
+        <v>615</v>
       </c>
       <c r="C229">
         <v>1957</v>
       </c>
       <c r="D229" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E229" t="s">
-        <v>711</v>
+        <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>708</v>
+        <v>613</v>
       </c>
       <c r="G229" t="s">
-        <v>712</v>
+        <v>616</v>
       </c>
       <c r="H229" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
@@ -8666,22 +8384,22 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>713</v>
+        <v>617</v>
       </c>
       <c r="C230">
         <v>2004</v>
       </c>
       <c r="D230" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E230" t="s">
-        <v>23</v>
+        <v>678</v>
       </c>
       <c r="F230" t="s">
-        <v>714</v>
+        <v>618</v>
       </c>
       <c r="G230" t="s">
-        <v>715</v>
+        <v>619</v>
       </c>
       <c r="H230">
         <v>23.53</v>
@@ -8692,7 +8410,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>716</v>
+        <v>620</v>
       </c>
       <c r="C231">
         <v>2000</v>
@@ -8701,13 +8419,13 @@
         <v>9</v>
       </c>
       <c r="E231" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>717</v>
+        <v>621</v>
       </c>
       <c r="G231" t="s">
-        <v>718</v>
+        <v>622</v>
       </c>
       <c r="H231">
         <v>5.38</v>
@@ -8718,22 +8436,22 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>719</v>
+        <v>623</v>
       </c>
       <c r="C232">
         <v>1957</v>
       </c>
       <c r="D232" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E232" t="s">
-        <v>294</v>
+        <v>679</v>
       </c>
       <c r="F232" t="s">
-        <v>356</v>
+        <v>299</v>
       </c>
       <c r="G232" t="s">
-        <v>720</v>
+        <v>624</v>
       </c>
       <c r="H232">
         <v>44.91</v>
@@ -8744,22 +8462,22 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>721</v>
+        <v>625</v>
       </c>
       <c r="C233">
         <v>1949</v>
       </c>
       <c r="D233" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E233" t="s">
-        <v>722</v>
+        <v>682</v>
       </c>
       <c r="F233" t="s">
-        <v>723</v>
+        <v>626</v>
       </c>
       <c r="G233" t="s">
-        <v>724</v>
+        <v>627</v>
       </c>
       <c r="H233">
         <v>0.45</v>
@@ -8770,7 +8488,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>725</v>
+        <v>628</v>
       </c>
       <c r="C234">
         <v>1993</v>
@@ -8779,13 +8497,13 @@
         <v>9</v>
       </c>
       <c r="E234" t="s">
-        <v>67</v>
+        <v>678</v>
       </c>
       <c r="F234" t="s">
-        <v>726</v>
+        <v>629</v>
       </c>
       <c r="G234" t="s">
-        <v>727</v>
+        <v>630</v>
       </c>
       <c r="H234">
         <v>25.01</v>
@@ -8796,22 +8514,22 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>728</v>
+        <v>631</v>
       </c>
       <c r="C235">
         <v>1940</v>
       </c>
       <c r="D235" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="E235" t="s">
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>729</v>
+        <v>632</v>
       </c>
       <c r="G235" t="s">
-        <v>730</v>
+        <v>633</v>
       </c>
       <c r="H235">
         <v>0.06</v>
@@ -8822,22 +8540,22 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>731</v>
+        <v>634</v>
       </c>
       <c r="C236">
         <v>1940</v>
       </c>
       <c r="D236" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E236" t="s">
-        <v>732</v>
+        <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="G236" t="s">
-        <v>733</v>
+        <v>635</v>
       </c>
       <c r="H236">
         <v>4.3600000000000003</v>
@@ -8848,22 +8566,22 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>734</v>
+        <v>636</v>
       </c>
       <c r="C237">
         <v>1954</v>
       </c>
       <c r="D237" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E237" t="s">
-        <v>91</v>
+        <v>676</v>
       </c>
       <c r="F237" t="s">
-        <v>735</v>
+        <v>637</v>
       </c>
       <c r="G237" t="s">
-        <v>736</v>
+        <v>638</v>
       </c>
       <c r="H237">
         <v>9.6</v>
@@ -8874,25 +8592,25 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>737</v>
+        <v>639</v>
       </c>
       <c r="C238">
         <v>2009</v>
       </c>
       <c r="D238" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E238" t="s">
-        <v>738</v>
+        <v>680</v>
       </c>
       <c r="F238" t="s">
-        <v>739</v>
+        <v>640</v>
       </c>
       <c r="G238" t="s">
-        <v>740</v>
+        <v>641</v>
       </c>
       <c r="H238" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
@@ -8900,25 +8618,25 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>741</v>
+        <v>642</v>
       </c>
       <c r="C239">
         <v>1959</v>
       </c>
       <c r="D239" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E239" t="s">
-        <v>14</v>
+        <v>676</v>
       </c>
       <c r="F239" t="s">
-        <v>742</v>
+        <v>643</v>
       </c>
       <c r="G239" t="s">
-        <v>743</v>
+        <v>644</v>
       </c>
       <c r="H239" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
@@ -8926,22 +8644,22 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>744</v>
+        <v>645</v>
       </c>
       <c r="C240">
         <v>1934</v>
       </c>
       <c r="D240" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="E240" t="s">
-        <v>348</v>
+        <v>670</v>
       </c>
       <c r="F240" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="G240" t="s">
-        <v>745</v>
+        <v>646</v>
       </c>
       <c r="H240">
         <v>4.3600000000000003</v>
@@ -8952,22 +8670,22 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>746</v>
+        <v>647</v>
       </c>
       <c r="C241">
         <v>1946</v>
       </c>
       <c r="D241" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E241" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>692</v>
+        <v>597</v>
       </c>
       <c r="G241" t="s">
-        <v>747</v>
+        <v>648</v>
       </c>
       <c r="H241">
         <v>23.65</v>
@@ -8978,25 +8696,25 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>748</v>
+        <v>649</v>
       </c>
       <c r="C242">
         <v>1957</v>
       </c>
       <c r="D242" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E242" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>708</v>
+        <v>613</v>
       </c>
       <c r="G242" t="s">
-        <v>749</v>
+        <v>650</v>
       </c>
       <c r="H242" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
@@ -9004,22 +8722,22 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>750</v>
+        <v>651</v>
       </c>
       <c r="C243">
         <v>1939</v>
       </c>
       <c r="D243" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="E243" t="s">
-        <v>268</v>
+        <v>670</v>
       </c>
       <c r="F243" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="G243" t="s">
-        <v>751</v>
+        <v>652</v>
       </c>
       <c r="H243">
         <v>9.6</v>
@@ -9030,22 +8748,22 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>752</v>
+        <v>653</v>
       </c>
       <c r="C244">
         <v>1966</v>
       </c>
       <c r="D244" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E244" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>753</v>
+        <v>654</v>
       </c>
       <c r="G244" t="s">
-        <v>754</v>
+        <v>655</v>
       </c>
       <c r="H244">
         <v>0.06</v>
@@ -9056,22 +8774,22 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>755</v>
+        <v>656</v>
       </c>
       <c r="C245">
         <v>1926</v>
       </c>
       <c r="D245" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="E245" t="s">
-        <v>281</v>
+        <v>677</v>
       </c>
       <c r="F245" t="s">
-        <v>756</v>
+        <v>657</v>
       </c>
       <c r="G245" t="s">
-        <v>757</v>
+        <v>658</v>
       </c>
       <c r="H245">
         <v>1.03</v>
@@ -9082,22 +8800,22 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>758</v>
+        <v>659</v>
       </c>
       <c r="C246">
         <v>1925</v>
       </c>
       <c r="D246" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="E246" t="s">
-        <v>759</v>
+        <v>679</v>
       </c>
       <c r="F246" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="G246" t="s">
-        <v>760</v>
+        <v>660</v>
       </c>
       <c r="H246">
         <v>5.45</v>
@@ -9108,22 +8826,22 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>761</v>
+        <v>661</v>
       </c>
       <c r="C247">
         <v>2004</v>
       </c>
       <c r="D247" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E247" t="s">
-        <v>198</v>
+        <v>680</v>
       </c>
       <c r="F247" t="s">
-        <v>604</v>
+        <v>517</v>
       </c>
       <c r="G247" t="s">
-        <v>762</v>
+        <v>662</v>
       </c>
       <c r="H247">
         <v>261.44</v>
@@ -9134,22 +8852,22 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>763</v>
+        <v>663</v>
       </c>
       <c r="C248">
         <v>1990</v>
       </c>
       <c r="D248" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E248" t="s">
-        <v>510</v>
+        <v>679</v>
       </c>
       <c r="F248" t="s">
-        <v>764</v>
+        <v>664</v>
       </c>
       <c r="G248" t="s">
-        <v>765</v>
+        <v>665</v>
       </c>
       <c r="H248">
         <v>184.21</v>
@@ -9160,22 +8878,22 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>766</v>
+        <v>666</v>
       </c>
       <c r="C249">
         <v>1992</v>
       </c>
       <c r="D249" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="E249" t="s">
-        <v>244</v>
+        <v>680</v>
       </c>
       <c r="F249" t="s">
-        <v>767</v>
+        <v>667</v>
       </c>
       <c r="G249" t="s">
-        <v>768</v>
+        <v>668</v>
       </c>
       <c r="H249">
         <v>217.35</v>
@@ -9186,7 +8904,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>769</v>
+        <v>669</v>
       </c>
       <c r="C250">
         <v>1979</v>
@@ -9195,13 +8913,13 @@
         <v>9</v>
       </c>
       <c r="E250" t="s">
-        <v>770</v>
+        <v>670</v>
       </c>
       <c r="F250" t="s">
-        <v>771</v>
+        <v>671</v>
       </c>
       <c r="G250" t="s">
-        <v>772</v>
+        <v>672</v>
       </c>
       <c r="H250">
         <v>20.05</v>
@@ -9212,22 +8930,22 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>773</v>
+        <v>673</v>
       </c>
       <c r="C251">
         <v>1993</v>
       </c>
       <c r="D251" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E251" t="s">
-        <v>774</v>
+        <v>670</v>
       </c>
       <c r="F251" t="s">
-        <v>775</v>
+        <v>674</v>
       </c>
       <c r="G251" t="s">
-        <v>776</v>
+        <v>675</v>
       </c>
       <c r="H251">
         <v>70.91</v>
